--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/ENTRADAS  OBRADOR   M A Y O      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/ENTRADAS  OBRADOR   M A Y O      2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="292">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -916,13 +916,22 @@
     <t xml:space="preserve">RAFAEL ZAMBRANO SANDOVAL          Frituras de cerdo SAN PEDRO </t>
   </si>
   <si>
-    <t>ZAS</t>
-  </si>
-  <si>
     <t>FOLIO 11211</t>
   </si>
   <si>
     <t>FOLIO 11206</t>
+  </si>
+  <si>
+    <t>ADAMAS INT MORELIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuero panceta </t>
+  </si>
+  <si>
+    <t>FOLIO  11209</t>
+  </si>
+  <si>
+    <t>PU-115222</t>
   </si>
 </sst>
 </file>
@@ -2533,7 +2542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="620">
+  <cellXfs count="624">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4026,6 +4035,24 @@
     <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="64" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4271,12 +4298,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4606,49 +4627,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="538" t="s">
+      <c r="A1" s="544" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="538"/>
-      <c r="C1" s="538"/>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
+      <c r="B1" s="544"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="539"/>
+      <c r="S1" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="545"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="541" t="s">
+      <c r="W1" s="547" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="542"/>
+      <c r="X1" s="548"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="538"/>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="538"/>
-      <c r="G2" s="538"/>
-      <c r="H2" s="538"/>
-      <c r="I2" s="538"/>
-      <c r="J2" s="538"/>
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -4656,8 +4677,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="540"/>
-      <c r="T2" s="540"/>
+      <c r="S2" s="546"/>
+      <c r="T2" s="546"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -4702,10 +4723,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="543" t="s">
+      <c r="O3" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="544"/>
+      <c r="P3" s="550"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -8026,8 +8047,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="545"/>
-      <c r="M90" s="546"/>
+      <c r="L90" s="551"/>
+      <c r="M90" s="552"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8059,8 +8080,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="545"/>
-      <c r="M91" s="546"/>
+      <c r="L91" s="551"/>
+      <c r="M91" s="552"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8263,8 +8284,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="547"/>
-      <c r="P97" s="549"/>
+      <c r="O97" s="553"/>
+      <c r="P97" s="555"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -8296,8 +8317,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="548"/>
-      <c r="P98" s="550"/>
+      <c r="O98" s="554"/>
+      <c r="P98" s="556"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -13689,11 +13710,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="536" t="s">
+      <c r="F262" s="542" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="536"/>
-      <c r="H262" s="537"/>
+      <c r="G262" s="542"/>
+      <c r="H262" s="543"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -14319,49 +14340,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="538" t="s">
+      <c r="A1" s="544" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="538"/>
-      <c r="C1" s="538"/>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
+      <c r="B1" s="544"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="539"/>
+      <c r="S1" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="545"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="541" t="s">
+      <c r="W1" s="547" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="542"/>
+      <c r="X1" s="548"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="538"/>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="538"/>
-      <c r="G2" s="538"/>
-      <c r="H2" s="538"/>
-      <c r="I2" s="538"/>
-      <c r="J2" s="538"/>
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -14369,8 +14390,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="540"/>
-      <c r="T2" s="540"/>
+      <c r="S2" s="546"/>
+      <c r="T2" s="546"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -14415,10 +14436,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="543" t="s">
+      <c r="O3" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="544"/>
+      <c r="P3" s="550"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -16751,13 +16772,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="553" t="s">
+      <c r="A59" s="559" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="555" t="s">
+      <c r="C59" s="561" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16765,10 +16786,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="557">
+      <c r="G59" s="563">
         <v>44981</v>
       </c>
-      <c r="H59" s="559" t="s">
+      <c r="H59" s="565" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -16787,10 +16808,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="561" t="s">
+      <c r="O59" s="567" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="551">
+      <c r="P59" s="557">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -16801,18 +16822,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="554"/>
+      <c r="A60" s="560"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="556"/>
+      <c r="C60" s="562"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="558"/>
-      <c r="H60" s="560"/>
+      <c r="G60" s="564"/>
+      <c r="H60" s="566"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -16829,8 +16850,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="562"/>
-      <c r="P60" s="552"/>
+      <c r="O60" s="568"/>
+      <c r="P60" s="558"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17068,7 +17089,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="591" t="s">
+      <c r="A66" s="597" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17080,10 +17101,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="593">
+      <c r="G66" s="599">
         <v>44973</v>
       </c>
-      <c r="H66" s="595" t="s">
+      <c r="H66" s="601" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17102,10 +17123,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="597" t="s">
+      <c r="O66" s="603" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="599">
+      <c r="P66" s="605">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17116,7 +17137,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="592"/>
+      <c r="A67" s="598"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17126,8 +17147,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="594"/>
-      <c r="H67" s="596"/>
+      <c r="G67" s="600"/>
+      <c r="H67" s="602"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17144,8 +17165,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="598"/>
-      <c r="P67" s="600"/>
+      <c r="O67" s="604"/>
+      <c r="P67" s="606"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17203,13 +17224,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="565" t="s">
+      <c r="A69" s="571" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="567" t="s">
+      <c r="C69" s="573" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17217,10 +17238,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="571">
+      <c r="G69" s="577">
         <v>44979</v>
       </c>
-      <c r="H69" s="569" t="s">
+      <c r="H69" s="575" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17239,10 +17260,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="573" t="s">
+      <c r="O69" s="579" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="563">
+      <c r="P69" s="569">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17253,18 +17274,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="566"/>
+      <c r="A70" s="572"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="568"/>
+      <c r="C70" s="574"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="572"/>
-      <c r="H70" s="570"/>
+      <c r="G70" s="578"/>
+      <c r="H70" s="576"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17281,8 +17302,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="574"/>
-      <c r="P70" s="564"/>
+      <c r="O70" s="580"/>
+      <c r="P70" s="570"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17291,13 +17312,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="579" t="s">
+      <c r="A71" s="585" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="577" t="s">
+      <c r="C71" s="583" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17305,10 +17326,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="582">
+      <c r="G71" s="588">
         <v>44982</v>
       </c>
-      <c r="H71" s="584" t="s">
+      <c r="H71" s="590" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -17327,10 +17348,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="587" t="s">
+      <c r="O71" s="593" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="575">
+      <c r="P71" s="581">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -17341,18 +17362,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="579"/>
+      <c r="A72" s="585"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="581"/>
+      <c r="C72" s="587"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="582"/>
-      <c r="H72" s="585"/>
+      <c r="G72" s="588"/>
+      <c r="H72" s="591"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -17369,8 +17390,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="588"/>
-      <c r="P72" s="590"/>
+      <c r="O72" s="594"/>
+      <c r="P72" s="596"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -17379,18 +17400,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="580"/>
+      <c r="A73" s="586"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="578"/>
+      <c r="C73" s="584"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="583"/>
-      <c r="H73" s="586"/>
+      <c r="G73" s="589"/>
+      <c r="H73" s="592"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -17407,8 +17428,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="589"/>
-      <c r="P73" s="576"/>
+      <c r="O73" s="595"/>
+      <c r="P73" s="582"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17584,13 +17605,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="591" t="s">
+      <c r="A80" s="597" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="577" t="s">
+      <c r="C80" s="583" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -17601,7 +17622,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="601" t="s">
+      <c r="H80" s="607" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -17620,10 +17641,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="587" t="s">
+      <c r="O80" s="593" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="575">
+      <c r="P80" s="581">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -17634,11 +17655,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="592"/>
+      <c r="A81" s="598"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="578"/>
+      <c r="C81" s="584"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -17647,7 +17668,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="602"/>
+      <c r="H81" s="608"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -17664,8 +17685,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="589"/>
-      <c r="P81" s="576"/>
+      <c r="O81" s="595"/>
+      <c r="P81" s="582"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -18216,8 +18237,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="545"/>
-      <c r="M99" s="546"/>
+      <c r="L99" s="551"/>
+      <c r="M99" s="552"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18249,8 +18270,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="545"/>
-      <c r="M100" s="546"/>
+      <c r="L100" s="551"/>
+      <c r="M100" s="552"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18453,8 +18474,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="547"/>
-      <c r="P106" s="549"/>
+      <c r="O106" s="553"/>
+      <c r="P106" s="555"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -18486,8 +18507,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="548"/>
-      <c r="P107" s="550"/>
+      <c r="O107" s="554"/>
+      <c r="P107" s="556"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -23879,11 +23900,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="536" t="s">
+      <c r="F271" s="542" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="536"/>
-      <c r="H271" s="537"/>
+      <c r="G271" s="542"/>
+      <c r="H271" s="543"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -24540,49 +24561,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="538" t="s">
+      <c r="A1" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="538"/>
-      <c r="C1" s="538"/>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
+      <c r="B1" s="544"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="539"/>
+      <c r="S1" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="545"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="541" t="s">
+      <c r="W1" s="547" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="542"/>
+      <c r="X1" s="548"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="538"/>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="538"/>
-      <c r="G2" s="538"/>
-      <c r="H2" s="538"/>
-      <c r="I2" s="538"/>
-      <c r="J2" s="538"/>
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -24590,8 +24611,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="540"/>
-      <c r="T2" s="540"/>
+      <c r="S2" s="546"/>
+      <c r="T2" s="546"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -24636,10 +24657,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="543" t="s">
+      <c r="O3" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="544"/>
+      <c r="P3" s="550"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -28202,13 +28223,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="591" t="s">
+      <c r="A83" s="597" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="577" t="s">
+      <c r="C83" s="583" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28216,10 +28237,10 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="557">
+      <c r="G83" s="563">
         <v>45014</v>
       </c>
-      <c r="H83" s="603" t="s">
+      <c r="H83" s="609" t="s">
         <v>180</v>
       </c>
       <c r="I83" s="155">
@@ -28232,7 +28253,7 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="607" t="s">
+      <c r="L83" s="613" t="s">
         <v>194</v>
       </c>
       <c r="M83" s="61"/>
@@ -28240,10 +28261,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O83" s="547" t="s">
+      <c r="O83" s="553" t="s">
         <v>21</v>
       </c>
-      <c r="P83" s="605">
+      <c r="P83" s="611">
         <v>45016</v>
       </c>
       <c r="Q83" s="158"/>
@@ -28254,18 +28275,18 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="592"/>
+      <c r="A84" s="598"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="578"/>
+      <c r="C84" s="584"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="558"/>
-      <c r="H84" s="604"/>
+      <c r="G84" s="564"/>
+      <c r="H84" s="610"/>
       <c r="I84" s="155">
         <v>142.5771</v>
       </c>
@@ -28276,14 +28297,14 @@
       <c r="K84" s="40">
         <v>70</v>
       </c>
-      <c r="L84" s="607"/>
+      <c r="L84" s="613"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O84" s="548"/>
-      <c r="P84" s="606"/>
+      <c r="O84" s="554"/>
+      <c r="P84" s="612"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -28714,8 +28735,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="545"/>
-      <c r="M98" s="546"/>
+      <c r="L98" s="551"/>
+      <c r="M98" s="552"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28747,8 +28768,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="545"/>
-      <c r="M99" s="546"/>
+      <c r="L99" s="551"/>
+      <c r="M99" s="552"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28951,8 +28972,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="547"/>
-      <c r="P105" s="549"/>
+      <c r="O105" s="553"/>
+      <c r="P105" s="555"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -28984,8 +29005,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="548"/>
-      <c r="P106" s="550"/>
+      <c r="O106" s="554"/>
+      <c r="P106" s="556"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -34377,11 +34398,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F270" s="536" t="s">
+      <c r="F270" s="542" t="s">
         <v>27</v>
       </c>
-      <c r="G270" s="536"/>
-      <c r="H270" s="537"/>
+      <c r="G270" s="542"/>
+      <c r="H270" s="543"/>
       <c r="I270" s="303">
         <f>SUM(I4:I269)</f>
         <v>601199.24578899995</v>
@@ -35017,49 +35038,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="538" t="s">
+      <c r="A1" s="544" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="538"/>
-      <c r="C1" s="538"/>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
+      <c r="B1" s="544"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="539"/>
+      <c r="S1" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="545"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="541" t="s">
+      <c r="W1" s="547" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="542"/>
+      <c r="X1" s="548"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="538"/>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="538"/>
-      <c r="G2" s="538"/>
-      <c r="H2" s="538"/>
-      <c r="I2" s="538"/>
-      <c r="J2" s="538"/>
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -35067,8 +35088,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="540"/>
-      <c r="T2" s="540"/>
+      <c r="S2" s="546"/>
+      <c r="T2" s="546"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -35113,10 +35134,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="543" t="s">
+      <c r="O3" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="544"/>
+      <c r="P3" s="550"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -37721,13 +37742,13 @@
       <c r="V64" s="50"/>
     </row>
     <row r="65" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="608" t="s">
+      <c r="A65" s="614" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="519" t="s">
         <v>255</v>
       </c>
-      <c r="C65" s="610" t="s">
+      <c r="C65" s="616" t="s">
         <v>256</v>
       </c>
       <c r="D65" s="517"/>
@@ -37735,10 +37756,10 @@
       <c r="F65" s="493">
         <v>9084.5</v>
       </c>
-      <c r="G65" s="614">
+      <c r="G65" s="620">
         <v>45041</v>
       </c>
-      <c r="H65" s="612">
+      <c r="H65" s="618">
         <v>145029</v>
       </c>
       <c r="I65" s="515">
@@ -37757,10 +37778,10 @@
         <f t="shared" si="2"/>
         <v>417887</v>
       </c>
-      <c r="O65" s="616" t="s">
+      <c r="O65" s="622" t="s">
         <v>22</v>
       </c>
-      <c r="P65" s="575">
+      <c r="P65" s="581">
         <v>45054</v>
       </c>
       <c r="Q65" s="166"/>
@@ -37771,18 +37792,18 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="609"/>
+      <c r="A66" s="615"/>
       <c r="B66" s="519" t="s">
         <v>257</v>
       </c>
-      <c r="C66" s="611"/>
+      <c r="C66" s="617"/>
       <c r="D66" s="517"/>
       <c r="E66" s="56"/>
       <c r="F66" s="526">
         <v>1007.3</v>
       </c>
-      <c r="G66" s="615"/>
-      <c r="H66" s="613"/>
+      <c r="G66" s="621"/>
+      <c r="H66" s="619"/>
       <c r="I66" s="527">
         <v>1007.3</v>
       </c>
@@ -37799,8 +37820,8 @@
         <f t="shared" si="2"/>
         <v>63459.899999999994</v>
       </c>
-      <c r="O66" s="617"/>
-      <c r="P66" s="576"/>
+      <c r="O66" s="623"/>
+      <c r="P66" s="582"/>
       <c r="Q66" s="166"/>
       <c r="R66" s="125"/>
       <c r="S66" s="48"/>
@@ -38461,8 +38482,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O86" s="547"/>
-      <c r="P86" s="605"/>
+      <c r="O86" s="553"/>
+      <c r="P86" s="611"/>
       <c r="Q86" s="158"/>
       <c r="R86" s="125"/>
       <c r="S86" s="176"/>
@@ -38491,8 +38512,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O87" s="548"/>
-      <c r="P87" s="606"/>
+      <c r="O87" s="554"/>
+      <c r="P87" s="612"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -38923,8 +38944,8 @@
         <v>0</v>
       </c>
       <c r="K101" s="81"/>
-      <c r="L101" s="545"/>
-      <c r="M101" s="546"/>
+      <c r="L101" s="551"/>
+      <c r="M101" s="552"/>
       <c r="N101" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -38956,8 +38977,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="545"/>
-      <c r="M102" s="546"/>
+      <c r="L102" s="551"/>
+      <c r="M102" s="552"/>
       <c r="N102" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39160,8 +39181,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O108" s="547"/>
-      <c r="P108" s="549"/>
+      <c r="O108" s="553"/>
+      <c r="P108" s="555"/>
       <c r="Q108" s="158"/>
       <c r="R108" s="125"/>
       <c r="S108" s="176"/>
@@ -39193,8 +39214,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O109" s="548"/>
-      <c r="P109" s="550"/>
+      <c r="O109" s="554"/>
+      <c r="P109" s="556"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -44586,11 +44607,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F273" s="536" t="s">
+      <c r="F273" s="542" t="s">
         <v>27</v>
       </c>
-      <c r="G273" s="536"/>
-      <c r="H273" s="537"/>
+      <c r="G273" s="542"/>
+      <c r="H273" s="543"/>
       <c r="I273" s="303">
         <f>SUM(I4:I272)</f>
         <v>374869.12</v>
@@ -45191,11 +45212,11 @@
   <sheetPr>
     <tabColor rgb="FF660033"/>
   </sheetPr>
-  <dimension ref="A1:X304"/>
+  <dimension ref="A1:X305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45225,49 +45246,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="538" t="s">
+      <c r="A1" s="544" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="538"/>
-      <c r="C1" s="538"/>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
+      <c r="B1" s="544"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="539"/>
+      <c r="S1" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="545"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="541" t="s">
+      <c r="W1" s="547" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="542"/>
+      <c r="X1" s="548"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="538"/>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="538"/>
-      <c r="G2" s="538"/>
-      <c r="H2" s="538"/>
-      <c r="I2" s="538"/>
-      <c r="J2" s="538"/>
+      <c r="A2" s="544"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -45275,8 +45296,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="540"/>
-      <c r="T2" s="540"/>
+      <c r="S2" s="546"/>
+      <c r="T2" s="546"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -45321,10 +45342,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="543" t="s">
+      <c r="O3" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="544"/>
+      <c r="P3" s="550"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -45347,8 +45368,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>286</v>
+      <c r="A4" s="538" t="s">
+        <v>139</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>247</v>
@@ -45376,7 +45397,7 @@
         <v>23043.65</v>
       </c>
       <c r="J4" s="39">
-        <f t="shared" ref="J4:J132" si="0">I4-F4</f>
+        <f t="shared" ref="J4:J133" si="0">I4-F4</f>
         <v>0</v>
       </c>
       <c r="K4" s="40">
@@ -45385,7 +45406,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="42">
-        <f t="shared" ref="N4:N126" si="1">K4*I4</f>
+        <f t="shared" ref="N4:N127" si="1">K4*I4</f>
         <v>744309.89500000002</v>
       </c>
       <c r="O4" s="470" t="s">
@@ -45406,7 +45427,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="413" t="s">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="54" t="s">
@@ -45459,7 +45480,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="479" t="s">
+      <c r="A6" s="539" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="54" t="s">
@@ -45512,7 +45533,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="479" t="s">
+      <c r="A7" s="539" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="54" t="s">
@@ -45563,7 +45584,7 @@
       <c r="X7" s="52"/>
     </row>
     <row r="8" spans="1:24" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="413" t="s">
+      <c r="A8" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -45612,28 +45633,40 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="486"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" s="67"/>
       <c r="D9" s="56"/>
       <c r="E9" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="504"/>
-      <c r="G9" s="376"/>
+      <c r="F9" s="504">
+        <v>22000</v>
+      </c>
+      <c r="G9" s="376">
+        <v>45061</v>
+      </c>
       <c r="H9" s="506"/>
-      <c r="I9" s="491"/>
+      <c r="I9" s="491">
+        <v>22000</v>
+      </c>
       <c r="J9" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="40">
+        <v>35.5</v>
+      </c>
       <c r="L9" s="61"/>
       <c r="M9" s="61"/>
       <c r="N9" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>781000</v>
       </c>
       <c r="O9" s="474"/>
       <c r="P9" s="475"/>
@@ -45649,28 +45682,40 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="413"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="540" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="C10" s="67"/>
       <c r="D10" s="56"/>
       <c r="E10" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="504"/>
-      <c r="G10" s="376"/>
+      <c r="F10" s="504">
+        <v>11560</v>
+      </c>
+      <c r="G10" s="376">
+        <v>45062</v>
+      </c>
       <c r="H10" s="506"/>
-      <c r="I10" s="491"/>
+      <c r="I10" s="491">
+        <v>11560</v>
+      </c>
       <c r="J10" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="40">
+        <v>35.5</v>
+      </c>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>410380</v>
       </c>
       <c r="O10" s="474"/>
       <c r="P10" s="475"/>
@@ -45684,28 +45729,40 @@
       <c r="X10" s="52"/>
     </row>
     <row r="11" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>204</v>
+      </c>
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
       <c r="E11" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="504"/>
-      <c r="G11" s="376"/>
+      <c r="F11" s="504">
+        <v>23970</v>
+      </c>
+      <c r="G11" s="376">
+        <v>45063</v>
+      </c>
       <c r="H11" s="453"/>
-      <c r="I11" s="491"/>
+      <c r="I11" s="491">
+        <v>23970</v>
+      </c>
       <c r="J11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>35.5</v>
+      </c>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>850935</v>
       </c>
       <c r="O11" s="476"/>
       <c r="P11" s="475"/>
@@ -45721,28 +45778,40 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" s="55"/>
       <c r="D12" s="56"/>
       <c r="E12" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="504"/>
-      <c r="G12" s="376"/>
+      <c r="F12" s="504">
+        <v>23250</v>
+      </c>
+      <c r="G12" s="376">
+        <v>45065</v>
+      </c>
       <c r="H12" s="453"/>
-      <c r="I12" s="491"/>
+      <c r="I12" s="491">
+        <v>23250</v>
+      </c>
       <c r="J12" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40">
+        <v>37</v>
+      </c>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>860250</v>
       </c>
       <c r="O12" s="476"/>
       <c r="P12" s="475"/>
@@ -45756,7 +45825,7 @@
       <c r="X12" s="52"/>
     </row>
     <row r="13" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="485"/>
+      <c r="A13" s="369"/>
       <c r="B13" s="54"/>
       <c r="C13" s="55"/>
       <c r="D13" s="73"/>
@@ -45793,7 +45862,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="486"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
@@ -45830,7 +45899,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="413"/>
+      <c r="A15" s="540"/>
       <c r="B15" s="54"/>
       <c r="C15" s="77"/>
       <c r="D15" s="56"/>
@@ -45867,7 +45936,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="54"/>
       <c r="C16" s="77"/>
       <c r="D16" s="56"/>
@@ -45904,7 +45973,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="54"/>
       <c r="C17" s="77"/>
       <c r="D17" s="56"/>
@@ -45941,7 +46010,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="487"/>
+      <c r="A18" s="541"/>
       <c r="B18" s="54"/>
       <c r="C18" s="78"/>
       <c r="D18" s="56"/>
@@ -45978,7 +46047,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="79"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="54"/>
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
@@ -46015,7 +46084,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="54"/>
       <c r="C20" s="67"/>
       <c r="D20" s="56"/>
@@ -46052,7 +46121,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55"/>
       <c r="D21" s="56"/>
@@ -46089,7 +46158,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="54"/>
       <c r="C22" s="77"/>
       <c r="D22" s="56"/>
@@ -46126,7 +46195,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="54"/>
       <c r="C23" s="439"/>
       <c r="D23" s="85"/>
@@ -47569,8 +47638,8 @@
       <c r="B64" s="386" t="s">
         <v>255</v>
       </c>
-      <c r="C64" s="618" t="s">
-        <v>288</v>
+      <c r="C64" s="536" t="s">
+        <v>287</v>
       </c>
       <c r="D64" s="160"/>
       <c r="E64" s="56"/>
@@ -47599,7 +47668,7 @@
         <f t="shared" si="1"/>
         <v>157872</v>
       </c>
-      <c r="O64" s="619" t="s">
+      <c r="O64" s="537" t="s">
         <v>22</v>
       </c>
       <c r="P64" s="58">
@@ -47612,48 +47681,48 @@
       <c r="U64" s="49"/>
       <c r="V64" s="50"/>
     </row>
-    <row r="65" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="456" t="s">
-        <v>285</v>
+    <row r="65" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="110" t="s">
+        <v>288</v>
       </c>
       <c r="B65" s="386" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="492" t="s">
-        <v>287</v>
-      </c>
-      <c r="D65" s="445"/>
+        <v>289</v>
+      </c>
+      <c r="C65" s="536" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="160"/>
       <c r="E65" s="56"/>
-      <c r="F65" s="493">
-        <v>3600</v>
-      </c>
-      <c r="G65" s="494">
-        <v>45054</v>
-      </c>
-      <c r="H65" s="506">
-        <v>61</v>
-      </c>
-      <c r="I65" s="493">
-        <v>3600</v>
+      <c r="F65" s="155">
+        <v>933.49</v>
+      </c>
+      <c r="G65" s="156">
+        <v>45051</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="I65" s="155">
+        <v>933.49</v>
       </c>
       <c r="J65" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K65" s="496">
-        <v>40</v>
+      <c r="K65" s="462">
+        <v>24.8</v>
       </c>
       <c r="L65" s="463"/>
       <c r="M65" s="463"/>
-      <c r="N65" s="497">
-        <f t="shared" si="1"/>
-        <v>144000</v>
-      </c>
-      <c r="O65" s="169" t="s">
-        <v>21</v>
+      <c r="N65" s="42">
+        <f t="shared" si="1"/>
+        <v>23150.552</v>
+      </c>
+      <c r="O65" s="537" t="s">
+        <v>22</v>
       </c>
       <c r="P65" s="58">
-        <v>45062</v>
+        <v>45061</v>
       </c>
       <c r="Q65" s="166"/>
       <c r="R65" s="125"/>
@@ -47662,29 +47731,49 @@
       <c r="U65" s="49"/>
       <c r="V65" s="50"/>
     </row>
-    <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="80"/>
-      <c r="B66" s="386"/>
-      <c r="C66" s="444"/>
+    <row r="66" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="456" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" s="386" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="492" t="s">
+        <v>286</v>
+      </c>
       <c r="D66" s="445"/>
       <c r="E66" s="56"/>
-      <c r="F66" s="446"/>
-      <c r="G66" s="447"/>
-      <c r="H66" s="448"/>
-      <c r="I66" s="446"/>
+      <c r="F66" s="493">
+        <v>3600</v>
+      </c>
+      <c r="G66" s="494">
+        <v>45054</v>
+      </c>
+      <c r="H66" s="506">
+        <v>61</v>
+      </c>
+      <c r="I66" s="493">
+        <v>3600</v>
+      </c>
       <c r="J66" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K66" s="462"/>
+      <c r="K66" s="496">
+        <v>40</v>
+      </c>
       <c r="L66" s="463"/>
       <c r="M66" s="463"/>
       <c r="N66" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="169"/>
-      <c r="P66" s="58"/>
+        <v>144000</v>
+      </c>
+      <c r="O66" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="58">
+        <v>45062</v>
+      </c>
       <c r="Q66" s="166"/>
       <c r="R66" s="125"/>
       <c r="S66" s="48"/>
@@ -47692,15 +47781,15 @@
       <c r="U66" s="49"/>
       <c r="V66" s="50"/>
     </row>
-    <row r="67" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="449"/>
+    <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="80"/>
       <c r="B67" s="386"/>
-      <c r="C67" s="450"/>
+      <c r="C67" s="444"/>
       <c r="D67" s="445"/>
       <c r="E67" s="56"/>
       <c r="F67" s="446"/>
       <c r="G67" s="447"/>
-      <c r="H67" s="451"/>
+      <c r="H67" s="448"/>
       <c r="I67" s="446"/>
       <c r="J67" s="39">
         <f t="shared" si="0"/>
@@ -47708,13 +47797,13 @@
       </c>
       <c r="K67" s="462"/>
       <c r="L67" s="463"/>
-      <c r="M67" s="464"/>
+      <c r="M67" s="463"/>
       <c r="N67" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O67" s="169"/>
-      <c r="P67" s="120"/>
+      <c r="P67" s="58"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -47722,7 +47811,7 @@
       <c r="U67" s="49"/>
       <c r="V67" s="50"/>
     </row>
-    <row r="68" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="449"/>
       <c r="B68" s="386"/>
       <c r="C68" s="450"/>
@@ -47738,7 +47827,7 @@
       </c>
       <c r="K68" s="462"/>
       <c r="L68" s="463"/>
-      <c r="M68" s="463"/>
+      <c r="M68" s="464"/>
       <c r="N68" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -47752,15 +47841,15 @@
       <c r="U68" s="49"/>
       <c r="V68" s="50"/>
     </row>
-    <row r="69" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="90"/>
+    <row r="69" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="449"/>
       <c r="B69" s="386"/>
-      <c r="C69" s="452"/>
+      <c r="C69" s="450"/>
       <c r="D69" s="445"/>
       <c r="E69" s="56"/>
       <c r="F69" s="446"/>
       <c r="G69" s="447"/>
-      <c r="H69" s="453"/>
+      <c r="H69" s="451"/>
       <c r="I69" s="446"/>
       <c r="J69" s="39">
         <f t="shared" si="0"/>
@@ -47774,7 +47863,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="169"/>
-      <c r="P69" s="58"/>
+      <c r="P69" s="120"/>
       <c r="Q69" s="166"/>
       <c r="R69" s="125"/>
       <c r="S69" s="48"/>
@@ -47782,15 +47871,15 @@
       <c r="U69" s="49"/>
       <c r="V69" s="50"/>
     </row>
-    <row r="70" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="456"/>
+    <row r="70" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="90"/>
       <c r="B70" s="386"/>
       <c r="C70" s="452"/>
-      <c r="D70" s="454"/>
+      <c r="D70" s="445"/>
       <c r="E70" s="56"/>
       <c r="F70" s="446"/>
       <c r="G70" s="447"/>
-      <c r="H70" s="455"/>
+      <c r="H70" s="453"/>
       <c r="I70" s="446"/>
       <c r="J70" s="39">
         <f t="shared" si="0"/>
@@ -47798,9 +47887,9 @@
       </c>
       <c r="K70" s="462"/>
       <c r="L70" s="463"/>
-      <c r="M70" s="465"/>
+      <c r="M70" s="463"/>
       <c r="N70" s="42">
-        <f>K70*I70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O70" s="169"/>
@@ -47812,7 +47901,7 @@
       <c r="U70" s="49"/>
       <c r="V70" s="50"/>
     </row>
-    <row r="71" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="456"/>
       <c r="B71" s="386"/>
       <c r="C71" s="452"/>
@@ -47827,8 +47916,8 @@
         <v>0</v>
       </c>
       <c r="K71" s="462"/>
-      <c r="L71" s="466"/>
-      <c r="M71" s="435"/>
+      <c r="L71" s="463"/>
+      <c r="M71" s="465"/>
       <c r="N71" s="42">
         <f>K71*I71</f>
         <v>0</v>
@@ -47842,23 +47931,23 @@
       <c r="U71" s="49"/>
       <c r="V71" s="50"/>
     </row>
-    <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="456"/>
-      <c r="B72" s="369"/>
-      <c r="C72" s="450"/>
+      <c r="B72" s="386"/>
+      <c r="C72" s="452"/>
       <c r="D72" s="454"/>
       <c r="E72" s="56"/>
       <c r="F72" s="446"/>
       <c r="G72" s="447"/>
-      <c r="H72" s="451"/>
+      <c r="H72" s="455"/>
       <c r="I72" s="446"/>
       <c r="J72" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K72" s="462"/>
-      <c r="L72" s="463"/>
-      <c r="M72" s="463"/>
+      <c r="L72" s="466"/>
+      <c r="M72" s="435"/>
       <c r="N72" s="42">
         <f>K72*I72</f>
         <v>0</v>
@@ -47867,20 +47956,20 @@
       <c r="P72" s="58"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
-      <c r="S72" s="176"/>
-      <c r="T72" s="177"/>
+      <c r="S72" s="48"/>
+      <c r="T72" s="48"/>
       <c r="U72" s="49"/>
       <c r="V72" s="50"/>
     </row>
-    <row r="73" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="90"/>
-      <c r="B73" s="386"/>
-      <c r="C73" s="452"/>
-      <c r="D73" s="445"/>
+    <row r="73" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="456"/>
+      <c r="B73" s="369"/>
+      <c r="C73" s="450"/>
+      <c r="D73" s="454"/>
       <c r="E73" s="56"/>
       <c r="F73" s="446"/>
       <c r="G73" s="447"/>
-      <c r="H73" s="453"/>
+      <c r="H73" s="451"/>
       <c r="I73" s="446"/>
       <c r="J73" s="39">
         <f t="shared" si="0"/>
@@ -47902,10 +47991,10 @@
       <c r="U73" s="49"/>
       <c r="V73" s="50"/>
     </row>
-    <row r="74" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="386"/>
-      <c r="C74" s="450"/>
+      <c r="C74" s="452"/>
       <c r="D74" s="445"/>
       <c r="E74" s="56"/>
       <c r="F74" s="446"/>
@@ -47917,10 +48006,10 @@
         <v>0</v>
       </c>
       <c r="K74" s="462"/>
-      <c r="L74" s="435"/>
+      <c r="L74" s="463"/>
       <c r="M74" s="463"/>
       <c r="N74" s="42">
-        <f t="shared" ref="N74:N80" si="5">K74*I74</f>
+        <f>K74*I74</f>
         <v>0</v>
       </c>
       <c r="O74" s="169"/>
@@ -47947,10 +48036,10 @@
         <v>0</v>
       </c>
       <c r="K75" s="462"/>
-      <c r="L75" s="467"/>
+      <c r="L75" s="435"/>
       <c r="M75" s="463"/>
       <c r="N75" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N75:N81" si="5">K75*I75</f>
         <v>0</v>
       </c>
       <c r="O75" s="169"/>
@@ -47964,7 +48053,7 @@
     </row>
     <row r="76" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
-      <c r="B76" s="369"/>
+      <c r="B76" s="386"/>
       <c r="C76" s="450"/>
       <c r="D76" s="445"/>
       <c r="E76" s="56"/>
@@ -47992,10 +48081,10 @@
       <c r="U76" s="49"/>
       <c r="V76" s="50"/>
     </row>
-    <row r="77" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="90"/>
       <c r="B77" s="369"/>
-      <c r="C77" s="452"/>
+      <c r="C77" s="450"/>
       <c r="D77" s="445"/>
       <c r="E77" s="56"/>
       <c r="F77" s="446"/>
@@ -48007,7 +48096,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="462"/>
-      <c r="L77" s="463"/>
+      <c r="L77" s="467"/>
       <c r="M77" s="463"/>
       <c r="N77" s="42">
         <f t="shared" si="5"/>
@@ -48023,14 +48112,14 @@
       <c r="V77" s="50"/>
     </row>
     <row r="78" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="456"/>
-      <c r="B78" s="386"/>
-      <c r="C78" s="457"/>
-      <c r="D78" s="454"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="369"/>
+      <c r="C78" s="452"/>
+      <c r="D78" s="445"/>
       <c r="E78" s="56"/>
       <c r="F78" s="446"/>
       <c r="G78" s="447"/>
-      <c r="H78" s="448"/>
+      <c r="H78" s="453"/>
       <c r="I78" s="446"/>
       <c r="J78" s="39">
         <f t="shared" si="0"/>
@@ -48055,7 +48144,7 @@
     <row r="79" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="456"/>
       <c r="B79" s="386"/>
-      <c r="C79" s="458"/>
+      <c r="C79" s="457"/>
       <c r="D79" s="454"/>
       <c r="E79" s="56"/>
       <c r="F79" s="446"/>
@@ -48082,10 +48171,10 @@
       <c r="U79" s="49"/>
       <c r="V79" s="50"/>
     </row>
-    <row r="80" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="456"/>
-      <c r="B80" s="459"/>
-      <c r="C80" s="452"/>
+      <c r="B80" s="386"/>
+      <c r="C80" s="458"/>
       <c r="D80" s="454"/>
       <c r="E80" s="56"/>
       <c r="F80" s="446"/>
@@ -48112,15 +48201,15 @@
       <c r="U80" s="49"/>
       <c r="V80" s="50"/>
     </row>
-    <row r="81" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="456"/>
-      <c r="B81" s="386"/>
+      <c r="B81" s="459"/>
       <c r="C81" s="452"/>
       <c r="D81" s="454"/>
       <c r="E81" s="56"/>
       <c r="F81" s="446"/>
       <c r="G81" s="447"/>
-      <c r="H81" s="451"/>
+      <c r="H81" s="448"/>
       <c r="I81" s="446"/>
       <c r="J81" s="39">
         <f t="shared" si="0"/>
@@ -48130,11 +48219,11 @@
       <c r="L81" s="463"/>
       <c r="M81" s="463"/>
       <c r="N81" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O81" s="158"/>
-      <c r="P81" s="183"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="169"/>
+      <c r="P81" s="58"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -48144,9 +48233,9 @@
     </row>
     <row r="82" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="456"/>
-      <c r="B82" s="369"/>
+      <c r="B82" s="386"/>
       <c r="C82" s="452"/>
-      <c r="D82" s="452"/>
+      <c r="D82" s="454"/>
       <c r="E82" s="56"/>
       <c r="F82" s="446"/>
       <c r="G82" s="447"/>
@@ -48172,11 +48261,11 @@
       <c r="U82" s="49"/>
       <c r="V82" s="50"/>
     </row>
-    <row r="83" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="456"/>
-      <c r="B83" s="459"/>
-      <c r="C83" s="450"/>
-      <c r="D83" s="454"/>
+      <c r="B83" s="369"/>
+      <c r="C83" s="452"/>
+      <c r="D83" s="452"/>
       <c r="E83" s="56"/>
       <c r="F83" s="446"/>
       <c r="G83" s="447"/>
@@ -48187,7 +48276,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="462"/>
-      <c r="L83" s="464"/>
+      <c r="L83" s="463"/>
       <c r="M83" s="463"/>
       <c r="N83" s="42">
         <f t="shared" si="1"/>
@@ -48195,36 +48284,36 @@
       </c>
       <c r="O83" s="158"/>
       <c r="P83" s="183"/>
-      <c r="Q83" s="158"/>
+      <c r="Q83" s="166"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
       <c r="T83" s="177"/>
       <c r="U83" s="49"/>
       <c r="V83" s="50"/>
     </row>
-    <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="456"/>
-      <c r="B84" s="386"/>
-      <c r="C84" s="461"/>
-      <c r="D84" s="452"/>
+      <c r="B84" s="459"/>
+      <c r="C84" s="450"/>
+      <c r="D84" s="454"/>
       <c r="E84" s="56"/>
       <c r="F84" s="446"/>
-      <c r="G84" s="460"/>
-      <c r="H84" s="448"/>
+      <c r="G84" s="447"/>
+      <c r="H84" s="451"/>
       <c r="I84" s="446"/>
       <c r="J84" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K84" s="462"/>
-      <c r="L84" s="469"/>
+      <c r="L84" s="464"/>
       <c r="M84" s="463"/>
       <c r="N84" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="547"/>
-      <c r="P84" s="605"/>
+      <c r="O84" s="158"/>
+      <c r="P84" s="183"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -48234,7 +48323,7 @@
     </row>
     <row r="85" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="456"/>
-      <c r="B85" s="369"/>
+      <c r="B85" s="386"/>
       <c r="C85" s="461"/>
       <c r="D85" s="452"/>
       <c r="E85" s="56"/>
@@ -48253,8 +48342,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="548"/>
-      <c r="P85" s="606"/>
+      <c r="O85" s="553"/>
+      <c r="P85" s="611"/>
       <c r="Q85" s="158"/>
       <c r="R85" s="125"/>
       <c r="S85" s="176"/>
@@ -48262,10 +48351,10 @@
       <c r="U85" s="49"/>
       <c r="V85" s="50"/>
     </row>
-    <row r="86" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="456"/>
       <c r="B86" s="369"/>
-      <c r="C86" s="452"/>
+      <c r="C86" s="461"/>
       <c r="D86" s="452"/>
       <c r="E86" s="56"/>
       <c r="F86" s="446"/>
@@ -48277,14 +48366,14 @@
         <v>0</v>
       </c>
       <c r="K86" s="462"/>
-      <c r="L86" s="463"/>
+      <c r="L86" s="469"/>
       <c r="M86" s="463"/>
       <c r="N86" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O86" s="158"/>
-      <c r="P86" s="186"/>
+      <c r="O86" s="554"/>
+      <c r="P86" s="612"/>
       <c r="Q86" s="158"/>
       <c r="R86" s="125"/>
       <c r="S86" s="176"/>
@@ -48323,15 +48412,15 @@
       <c r="V87" s="50"/>
     </row>
     <row r="88" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="152"/>
-      <c r="B88" s="178"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="170"/>
+      <c r="A88" s="456"/>
+      <c r="B88" s="369"/>
+      <c r="C88" s="452"/>
+      <c r="D88" s="452"/>
       <c r="E88" s="56"/>
-      <c r="F88" s="155"/>
-      <c r="G88" s="185"/>
-      <c r="H88" s="164"/>
-      <c r="I88" s="155"/>
+      <c r="F88" s="446"/>
+      <c r="G88" s="460"/>
+      <c r="H88" s="448"/>
+      <c r="I88" s="446"/>
       <c r="J88" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -48352,15 +48441,15 @@
       <c r="U88" s="49"/>
       <c r="V88" s="50"/>
     </row>
-    <row r="89" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="152"/>
-      <c r="B89" s="167"/>
+      <c r="B89" s="178"/>
       <c r="C89" s="170"/>
-      <c r="D89" s="174"/>
+      <c r="D89" s="170"/>
       <c r="E89" s="56"/>
       <c r="F89" s="155"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="168"/>
+      <c r="G89" s="185"/>
+      <c r="H89" s="164"/>
       <c r="I89" s="155"/>
       <c r="J89" s="39">
         <f t="shared" si="0"/>
@@ -48374,7 +48463,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="158"/>
-      <c r="P89" s="183"/>
+      <c r="P89" s="186"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -48382,11 +48471,11 @@
       <c r="U89" s="49"/>
       <c r="V89" s="50"/>
     </row>
-    <row r="90" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="152"/>
       <c r="B90" s="167"/>
       <c r="C90" s="170"/>
-      <c r="D90" s="187"/>
+      <c r="D90" s="174"/>
       <c r="E90" s="56"/>
       <c r="F90" s="155"/>
       <c r="G90" s="156"/>
@@ -48396,7 +48485,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K90" s="468"/>
+      <c r="K90" s="462"/>
       <c r="L90" s="463"/>
       <c r="M90" s="463"/>
       <c r="N90" s="42">
@@ -48420,7 +48509,7 @@
       <c r="E91" s="56"/>
       <c r="F91" s="155"/>
       <c r="G91" s="156"/>
-      <c r="H91" s="164"/>
+      <c r="H91" s="168"/>
       <c r="I91" s="155"/>
       <c r="J91" s="39">
         <f t="shared" si="0"/>
@@ -48434,7 +48523,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="158"/>
-      <c r="P91" s="186"/>
+      <c r="P91" s="183"/>
       <c r="Q91" s="158"/>
       <c r="R91" s="125"/>
       <c r="S91" s="176"/>
@@ -48476,7 +48565,7 @@
       <c r="A93" s="152"/>
       <c r="B93" s="167"/>
       <c r="C93" s="170"/>
-      <c r="D93" s="181"/>
+      <c r="D93" s="187"/>
       <c r="E93" s="56"/>
       <c r="F93" s="155"/>
       <c r="G93" s="156"/>
@@ -48507,10 +48596,7 @@
       <c r="B94" s="167"/>
       <c r="C94" s="170"/>
       <c r="D94" s="181"/>
-      <c r="E94" s="56">
-        <f t="shared" ref="E94:E159" si="6">D94*F94</f>
-        <v>0</v>
-      </c>
+      <c r="E94" s="56"/>
       <c r="F94" s="155"/>
       <c r="G94" s="156"/>
       <c r="H94" s="164"/>
@@ -48519,9 +48605,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K94" s="81"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
+      <c r="K94" s="468"/>
+      <c r="L94" s="463"/>
+      <c r="M94" s="463"/>
       <c r="N94" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -48536,17 +48622,17 @@
       <c r="V94" s="50"/>
     </row>
     <row r="95" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="98"/>
+      <c r="A95" s="152"/>
       <c r="B95" s="167"/>
-      <c r="C95" s="188"/>
-      <c r="D95" s="187"/>
+      <c r="C95" s="170"/>
+      <c r="D95" s="181"/>
       <c r="E95" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E95:E160" si="6">D95*F95</f>
         <v>0</v>
       </c>
       <c r="F95" s="155"/>
       <c r="G95" s="156"/>
-      <c r="H95" s="168"/>
+      <c r="H95" s="164"/>
       <c r="I95" s="155"/>
       <c r="J95" s="39">
         <f t="shared" si="0"/>
@@ -48560,7 +48646,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="158"/>
-      <c r="P95" s="183"/>
+      <c r="P95" s="186"/>
       <c r="Q95" s="158"/>
       <c r="R95" s="125"/>
       <c r="S95" s="176"/>
@@ -48571,7 +48657,7 @@
     <row r="96" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="98"/>
       <c r="B96" s="167"/>
-      <c r="C96" s="189"/>
+      <c r="C96" s="188"/>
       <c r="D96" s="187"/>
       <c r="E96" s="56">
         <f t="shared" si="6"/>
@@ -48593,7 +48679,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="158"/>
-      <c r="P96" s="190"/>
+      <c r="P96" s="183"/>
       <c r="Q96" s="158"/>
       <c r="R96" s="125"/>
       <c r="S96" s="176"/>
@@ -48604,8 +48690,8 @@
     <row r="97" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="98"/>
       <c r="B97" s="167"/>
-      <c r="C97" s="187"/>
-      <c r="D97" s="191"/>
+      <c r="C97" s="189"/>
+      <c r="D97" s="187"/>
       <c r="E97" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -48635,18 +48721,18 @@
       <c r="V97" s="50"/>
     </row>
     <row r="98" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="110"/>
-      <c r="B98" s="99"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="167"/>
       <c r="C98" s="187"/>
       <c r="D98" s="191"/>
       <c r="E98" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F98" s="60"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="60"/>
+      <c r="F98" s="155"/>
+      <c r="G98" s="156"/>
+      <c r="H98" s="168"/>
+      <c r="I98" s="155"/>
       <c r="J98" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -48667,10 +48753,10 @@
       <c r="U98" s="49"/>
       <c r="V98" s="50"/>
     </row>
-    <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="110"/>
       <c r="B99" s="99"/>
-      <c r="C99" s="192"/>
+      <c r="C99" s="187"/>
       <c r="D99" s="191"/>
       <c r="E99" s="56">
         <f t="shared" si="6"/>
@@ -48685,8 +48771,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="545"/>
-      <c r="M99" s="546"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="61"/>
       <c r="N99" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -48703,7 +48789,7 @@
     <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="110"/>
       <c r="B100" s="99"/>
-      <c r="C100" s="182"/>
+      <c r="C100" s="192"/>
       <c r="D100" s="191"/>
       <c r="E100" s="56">
         <f t="shared" si="6"/>
@@ -48718,8 +48804,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="545"/>
-      <c r="M100" s="546"/>
+      <c r="L100" s="551"/>
+      <c r="M100" s="552"/>
       <c r="N100" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -48733,10 +48819,10 @@
       <c r="U100" s="49"/>
       <c r="V100" s="50"/>
     </row>
-    <row r="101" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="193"/>
+    <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="110"/>
       <c r="B101" s="99"/>
-      <c r="C101" s="194"/>
+      <c r="C101" s="182"/>
       <c r="D101" s="191"/>
       <c r="E101" s="56">
         <f t="shared" si="6"/>
@@ -48751,8 +48837,8 @@
         <v>0</v>
       </c>
       <c r="K101" s="81"/>
-      <c r="L101" s="195"/>
-      <c r="M101" s="195"/>
+      <c r="L101" s="551"/>
+      <c r="M101" s="552"/>
       <c r="N101" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -48766,10 +48852,10 @@
       <c r="U101" s="49"/>
       <c r="V101" s="50"/>
     </row>
-    <row r="102" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="196"/>
+    <row r="102" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="193"/>
       <c r="B102" s="99"/>
-      <c r="C102" s="154"/>
+      <c r="C102" s="194"/>
       <c r="D102" s="191"/>
       <c r="E102" s="56">
         <f t="shared" si="6"/>
@@ -48799,10 +48885,10 @@
       <c r="U102" s="49"/>
       <c r="V102" s="50"/>
     </row>
-    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="101"/>
+    <row r="103" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="196"/>
       <c r="B103" s="99"/>
-      <c r="C103" s="191"/>
+      <c r="C103" s="154"/>
       <c r="D103" s="191"/>
       <c r="E103" s="56">
         <f t="shared" si="6"/>
@@ -48817,8 +48903,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
-      <c r="L103" s="61"/>
-      <c r="M103" s="61"/>
+      <c r="L103" s="195"/>
+      <c r="M103" s="195"/>
       <c r="N103" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -48899,9 +48985,9 @@
       <c r="V105" s="50"/>
     </row>
     <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="110"/>
+      <c r="A106" s="101"/>
       <c r="B106" s="99"/>
-      <c r="C106" s="187"/>
+      <c r="C106" s="191"/>
       <c r="D106" s="191"/>
       <c r="E106" s="56">
         <f t="shared" si="6"/>
@@ -48922,8 +49008,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O106" s="547"/>
-      <c r="P106" s="549"/>
+      <c r="O106" s="158"/>
+      <c r="P106" s="190"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -48955,8 +49041,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O107" s="548"/>
-      <c r="P107" s="550"/>
+      <c r="O107" s="553"/>
+      <c r="P107" s="555"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -48965,9 +49051,9 @@
       <c r="V107" s="50"/>
     </row>
     <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="99"/>
+      <c r="A108" s="110"/>
       <c r="B108" s="99"/>
-      <c r="C108" s="191"/>
+      <c r="C108" s="187"/>
       <c r="D108" s="191"/>
       <c r="E108" s="56">
         <f t="shared" si="6"/>
@@ -48988,8 +49074,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O108" s="158"/>
-      <c r="P108" s="190"/>
+      <c r="O108" s="554"/>
+      <c r="P108" s="556"/>
       <c r="Q108" s="158"/>
       <c r="R108" s="125"/>
       <c r="S108" s="176"/>
@@ -49031,10 +49117,10 @@
       <c r="V109" s="50"/>
     </row>
     <row r="110" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="102"/>
+      <c r="A110" s="99"/>
       <c r="B110" s="99"/>
-      <c r="C110" s="197"/>
-      <c r="D110" s="197"/>
+      <c r="C110" s="191"/>
+      <c r="D110" s="191"/>
       <c r="E110" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -49063,11 +49149,11 @@
       <c r="U110" s="49"/>
       <c r="V110" s="50"/>
     </row>
-    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="152"/>
-      <c r="B111" s="110"/>
-      <c r="C111" s="194"/>
-      <c r="D111" s="194"/>
+    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="102"/>
+      <c r="B111" s="99"/>
+      <c r="C111" s="197"/>
+      <c r="D111" s="197"/>
       <c r="E111" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -49099,8 +49185,8 @@
     <row r="112" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A112" s="152"/>
       <c r="B112" s="110"/>
-      <c r="C112" s="197"/>
-      <c r="D112" s="197"/>
+      <c r="C112" s="194"/>
+      <c r="D112" s="194"/>
       <c r="E112" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -49162,9 +49248,9 @@
       <c r="U113" s="49"/>
       <c r="V113" s="50"/>
     </row>
-    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="101"/>
-      <c r="B114" s="99"/>
+    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A114" s="152"/>
+      <c r="B114" s="110"/>
       <c r="C114" s="197"/>
       <c r="D114" s="197"/>
       <c r="E114" s="56">
@@ -49191,7 +49277,7 @@
       <c r="Q114" s="158"/>
       <c r="R114" s="125"/>
       <c r="S114" s="176"/>
-      <c r="T114" s="176"/>
+      <c r="T114" s="177"/>
       <c r="U114" s="49"/>
       <c r="V114" s="50"/>
     </row>
@@ -49261,9 +49347,9 @@
       <c r="U116" s="49"/>
       <c r="V116" s="50"/>
     </row>
-    <row r="117" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="99"/>
-      <c r="B117" s="198"/>
+    <row r="117" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="101"/>
+      <c r="B117" s="99"/>
       <c r="C117" s="197"/>
       <c r="D117" s="197"/>
       <c r="E117" s="56">
@@ -49290,13 +49376,13 @@
       <c r="Q117" s="158"/>
       <c r="R117" s="125"/>
       <c r="S117" s="176"/>
-      <c r="T117" s="177"/>
+      <c r="T117" s="176"/>
       <c r="U117" s="49"/>
       <c r="V117" s="50"/>
     </row>
-    <row r="118" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="99"/>
-      <c r="B118" s="99"/>
+      <c r="B118" s="198"/>
       <c r="C118" s="197"/>
       <c r="D118" s="197"/>
       <c r="E118" s="56">
@@ -49361,7 +49447,7 @@
       <c r="V119" s="50"/>
     </row>
     <row r="120" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A120" s="152"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="99"/>
       <c r="C120" s="197"/>
       <c r="D120" s="197"/>
@@ -49393,18 +49479,18 @@
       <c r="U120" s="49"/>
       <c r="V120" s="50"/>
     </row>
-    <row r="121" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="199"/>
-      <c r="B121" s="199"/>
-      <c r="C121" s="200"/>
-      <c r="D121" s="200"/>
-      <c r="E121" s="201">
+    <row r="121" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="152"/>
+      <c r="B121" s="99"/>
+      <c r="C121" s="197"/>
+      <c r="D121" s="197"/>
+      <c r="E121" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F121" s="38"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="499"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="59"/>
       <c r="I121" s="60"/>
       <c r="J121" s="39">
         <f t="shared" si="0"/>
@@ -49426,18 +49512,18 @@
       <c r="U121" s="49"/>
       <c r="V121" s="50"/>
     </row>
-    <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="99"/>
-      <c r="B122" s="99"/>
-      <c r="C122" s="197"/>
-      <c r="D122" s="197"/>
-      <c r="E122" s="34">
+    <row r="122" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="199"/>
+      <c r="B122" s="199"/>
+      <c r="C122" s="200"/>
+      <c r="D122" s="200"/>
+      <c r="E122" s="201">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F122" s="60"/>
-      <c r="G122" s="58"/>
-      <c r="H122" s="59"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="499"/>
       <c r="I122" s="60"/>
       <c r="J122" s="39">
         <f t="shared" si="0"/>
@@ -49460,7 +49546,7 @@
       <c r="V122" s="50"/>
     </row>
     <row r="123" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="110"/>
+      <c r="A123" s="99"/>
       <c r="B123" s="99"/>
       <c r="C123" s="197"/>
       <c r="D123" s="197"/>
@@ -49559,7 +49645,7 @@
       <c r="V125" s="50"/>
     </row>
     <row r="126" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="99"/>
+      <c r="A126" s="110"/>
       <c r="B126" s="99"/>
       <c r="C126" s="197"/>
       <c r="D126" s="197"/>
@@ -49592,7 +49678,7 @@
       <c r="V126" s="50"/>
     </row>
     <row r="127" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="98"/>
+      <c r="A127" s="99"/>
       <c r="B127" s="99"/>
       <c r="C127" s="197"/>
       <c r="D127" s="197"/>
@@ -49612,7 +49698,7 @@
       <c r="L127" s="61"/>
       <c r="M127" s="61"/>
       <c r="N127" s="42">
-        <f t="shared" ref="N127:N190" si="7">K127*I127</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O127" s="158"/>
@@ -49625,7 +49711,7 @@
       <c r="V127" s="50"/>
     </row>
     <row r="128" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="101"/>
+      <c r="A128" s="98"/>
       <c r="B128" s="99"/>
       <c r="C128" s="197"/>
       <c r="D128" s="197"/>
@@ -49645,7 +49731,7 @@
       <c r="L128" s="61"/>
       <c r="M128" s="61"/>
       <c r="N128" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N128:N191" si="7">K128*I128</f>
         <v>0</v>
       </c>
       <c r="O128" s="158"/>
@@ -49691,7 +49777,7 @@
       <c r="V129" s="50"/>
     </row>
     <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="202"/>
+      <c r="A130" s="101"/>
       <c r="B130" s="99"/>
       <c r="C130" s="197"/>
       <c r="D130" s="197"/>
@@ -49724,7 +49810,7 @@
       <c r="V130" s="50"/>
     </row>
     <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="203"/>
+      <c r="A131" s="202"/>
       <c r="B131" s="99"/>
       <c r="C131" s="197"/>
       <c r="D131" s="197"/>
@@ -49757,7 +49843,7 @@
       <c r="V131" s="50"/>
     </row>
     <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="204"/>
+      <c r="A132" s="203"/>
       <c r="B132" s="99"/>
       <c r="C132" s="197"/>
       <c r="D132" s="197"/>
@@ -49792,8 +49878,8 @@
     <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="204"/>
       <c r="B133" s="99"/>
-      <c r="C133" s="154"/>
-      <c r="D133" s="154"/>
+      <c r="C133" s="197"/>
+      <c r="D133" s="197"/>
       <c r="E133" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -49803,7 +49889,7 @@
       <c r="H133" s="59"/>
       <c r="I133" s="60"/>
       <c r="J133" s="39">
-        <f t="shared" ref="J133:J196" si="8">I133-F133</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K133" s="81"/>
@@ -49823,20 +49909,20 @@
       <c r="V133" s="50"/>
     </row>
     <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="203"/>
+      <c r="A134" s="204"/>
       <c r="B134" s="99"/>
-      <c r="C134" s="197"/>
-      <c r="D134" s="197"/>
+      <c r="C134" s="154"/>
+      <c r="D134" s="154"/>
       <c r="E134" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F134" s="60"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="205"/>
+      <c r="H134" s="59"/>
       <c r="I134" s="60"/>
       <c r="J134" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J134:J197" si="8">I134-F134</f>
         <v>0</v>
       </c>
       <c r="K134" s="81"/>
@@ -49858,8 +49944,8 @@
     <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="203"/>
       <c r="B135" s="99"/>
-      <c r="C135" s="154"/>
-      <c r="D135" s="154"/>
+      <c r="C135" s="197"/>
+      <c r="D135" s="197"/>
       <c r="E135" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -49891,8 +49977,8 @@
     <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="203"/>
       <c r="B136" s="99"/>
-      <c r="C136" s="197"/>
-      <c r="D136" s="197"/>
+      <c r="C136" s="154"/>
+      <c r="D136" s="154"/>
       <c r="E136" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -49924,8 +50010,8 @@
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="203"/>
       <c r="B137" s="99"/>
-      <c r="C137" s="194"/>
-      <c r="D137" s="194"/>
+      <c r="C137" s="197"/>
+      <c r="D137" s="197"/>
       <c r="E137" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -49946,7 +50032,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="158"/>
-      <c r="P137" s="183"/>
+      <c r="P137" s="190"/>
       <c r="Q137" s="158"/>
       <c r="R137" s="125"/>
       <c r="S137" s="176"/>
@@ -49954,18 +50040,18 @@
       <c r="U137" s="49"/>
       <c r="V137" s="50"/>
     </row>
-    <row r="138" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="99"/>
+    <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="203"/>
       <c r="B138" s="99"/>
-      <c r="C138" s="197"/>
-      <c r="D138" s="197"/>
+      <c r="C138" s="194"/>
+      <c r="D138" s="194"/>
       <c r="E138" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F138" s="60"/>
       <c r="G138" s="58"/>
-      <c r="H138" s="206"/>
+      <c r="H138" s="205"/>
       <c r="I138" s="60"/>
       <c r="J138" s="39">
         <f t="shared" si="8"/>
@@ -49979,9 +50065,9 @@
         <v>0</v>
       </c>
       <c r="O138" s="158"/>
-      <c r="P138" s="207"/>
+      <c r="P138" s="183"/>
       <c r="Q138" s="158"/>
-      <c r="R138" s="208"/>
+      <c r="R138" s="125"/>
       <c r="S138" s="176"/>
       <c r="T138" s="177"/>
       <c r="U138" s="49"/>
@@ -50086,8 +50172,8 @@
       <c r="U141" s="49"/>
       <c r="V141" s="50"/>
     </row>
-    <row r="142" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="102"/>
+    <row r="142" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="99"/>
       <c r="B142" s="99"/>
       <c r="C142" s="197"/>
       <c r="D142" s="197"/>
@@ -50097,7 +50183,7 @@
       </c>
       <c r="F142" s="60"/>
       <c r="G142" s="58"/>
-      <c r="H142" s="205"/>
+      <c r="H142" s="206"/>
       <c r="I142" s="60"/>
       <c r="J142" s="39">
         <f t="shared" si="8"/>
@@ -50110,9 +50196,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O142" s="69"/>
-      <c r="P142" s="209"/>
-      <c r="Q142" s="210"/>
+      <c r="O142" s="158"/>
+      <c r="P142" s="207"/>
+      <c r="Q142" s="158"/>
       <c r="R142" s="208"/>
       <c r="S142" s="176"/>
       <c r="T142" s="177"/>
@@ -50120,7 +50206,7 @@
       <c r="V142" s="50"/>
     </row>
     <row r="143" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="99"/>
+      <c r="A143" s="102"/>
       <c r="B143" s="99"/>
       <c r="C143" s="197"/>
       <c r="D143" s="197"/>
@@ -50153,10 +50239,10 @@
       <c r="V143" s="50"/>
     </row>
     <row r="144" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="101"/>
+      <c r="A144" s="99"/>
       <c r="B144" s="99"/>
-      <c r="C144" s="181"/>
-      <c r="D144" s="181"/>
+      <c r="C144" s="197"/>
+      <c r="D144" s="197"/>
       <c r="E144" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -50318,10 +50404,10 @@
       <c r="V148" s="50"/>
     </row>
     <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="203"/>
+      <c r="A149" s="101"/>
       <c r="B149" s="99"/>
-      <c r="C149" s="197"/>
-      <c r="D149" s="197"/>
+      <c r="C149" s="181"/>
+      <c r="D149" s="181"/>
       <c r="E149" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -50351,10 +50437,10 @@
       <c r="V149" s="50"/>
     </row>
     <row r="150" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="169"/>
+      <c r="A150" s="203"/>
       <c r="B150" s="99"/>
-      <c r="C150" s="182"/>
-      <c r="D150" s="182"/>
+      <c r="C150" s="197"/>
+      <c r="D150" s="197"/>
       <c r="E150" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -50409,7 +50495,7 @@
       </c>
       <c r="O151" s="69"/>
       <c r="P151" s="209"/>
-      <c r="Q151" s="211"/>
+      <c r="Q151" s="210"/>
       <c r="R151" s="208"/>
       <c r="S151" s="176"/>
       <c r="T151" s="177"/>
@@ -50442,7 +50528,7 @@
       </c>
       <c r="O152" s="69"/>
       <c r="P152" s="209"/>
-      <c r="Q152" s="210"/>
+      <c r="Q152" s="211"/>
       <c r="R152" s="208"/>
       <c r="S152" s="176"/>
       <c r="T152" s="177"/>
@@ -50450,10 +50536,10 @@
       <c r="V152" s="50"/>
     </row>
     <row r="153" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="203"/>
+      <c r="A153" s="169"/>
       <c r="B153" s="99"/>
-      <c r="C153" s="197"/>
-      <c r="D153" s="197"/>
+      <c r="C153" s="182"/>
+      <c r="D153" s="182"/>
       <c r="E153" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -50474,7 +50560,7 @@
         <v>0</v>
       </c>
       <c r="O153" s="69"/>
-      <c r="P153" s="212"/>
+      <c r="P153" s="209"/>
       <c r="Q153" s="210"/>
       <c r="R153" s="208"/>
       <c r="S153" s="176"/>
@@ -50482,7 +50568,7 @@
       <c r="U153" s="49"/>
       <c r="V153" s="50"/>
     </row>
-    <row r="154" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="203"/>
       <c r="B154" s="99"/>
       <c r="C154" s="197"/>
@@ -50493,7 +50579,7 @@
       </c>
       <c r="F154" s="60"/>
       <c r="G154" s="58"/>
-      <c r="H154" s="206"/>
+      <c r="H154" s="205"/>
       <c r="I154" s="60"/>
       <c r="J154" s="39">
         <f t="shared" si="8"/>
@@ -50515,7 +50601,7 @@
       <c r="U154" s="49"/>
       <c r="V154" s="50"/>
     </row>
-    <row r="155" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="203"/>
       <c r="B155" s="99"/>
       <c r="C155" s="197"/>
@@ -50526,7 +50612,7 @@
       </c>
       <c r="F155" s="60"/>
       <c r="G155" s="58"/>
-      <c r="H155" s="213"/>
+      <c r="H155" s="206"/>
       <c r="I155" s="60"/>
       <c r="J155" s="39">
         <f t="shared" si="8"/>
@@ -50559,7 +50645,7 @@
       </c>
       <c r="F156" s="60"/>
       <c r="G156" s="58"/>
-      <c r="H156" s="205"/>
+      <c r="H156" s="213"/>
       <c r="I156" s="60"/>
       <c r="J156" s="39">
         <f t="shared" si="8"/>
@@ -50582,7 +50668,7 @@
       <c r="V156" s="50"/>
     </row>
     <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="214"/>
+      <c r="A157" s="203"/>
       <c r="B157" s="99"/>
       <c r="C157" s="197"/>
       <c r="D157" s="197"/>
@@ -50592,7 +50678,7 @@
       </c>
       <c r="F157" s="60"/>
       <c r="G157" s="58"/>
-      <c r="H157" s="215"/>
+      <c r="H157" s="205"/>
       <c r="I157" s="60"/>
       <c r="J157" s="39">
         <f t="shared" si="8"/>
@@ -50605,17 +50691,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O157" s="216"/>
-      <c r="P157" s="217"/>
-      <c r="Q157" s="218"/>
-      <c r="R157" s="219"/>
+      <c r="O157" s="69"/>
+      <c r="P157" s="212"/>
+      <c r="Q157" s="210"/>
+      <c r="R157" s="208"/>
       <c r="S157" s="176"/>
       <c r="T157" s="177"/>
       <c r="U157" s="49"/>
       <c r="V157" s="50"/>
     </row>
     <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="220"/>
+      <c r="A158" s="214"/>
       <c r="B158" s="99"/>
       <c r="C158" s="197"/>
       <c r="D158" s="197"/>
@@ -50624,8 +50710,8 @@
         <v>0</v>
       </c>
       <c r="F158" s="60"/>
-      <c r="G158" s="221"/>
-      <c r="H158" s="222"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="215"/>
       <c r="I158" s="60"/>
       <c r="J158" s="39">
         <f t="shared" si="8"/>
@@ -50638,17 +50724,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O158" s="223"/>
-      <c r="P158" s="224"/>
-      <c r="Q158" s="210"/>
-      <c r="R158" s="208"/>
+      <c r="O158" s="216"/>
+      <c r="P158" s="217"/>
+      <c r="Q158" s="218"/>
+      <c r="R158" s="219"/>
       <c r="S158" s="176"/>
       <c r="T158" s="177"/>
       <c r="U158" s="49"/>
       <c r="V158" s="50"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="204"/>
+      <c r="A159" s="220"/>
       <c r="B159" s="99"/>
       <c r="C159" s="197"/>
       <c r="D159" s="197"/>
@@ -50657,8 +50743,8 @@
         <v>0</v>
       </c>
       <c r="F159" s="60"/>
-      <c r="G159" s="224"/>
-      <c r="H159" s="215"/>
+      <c r="G159" s="221"/>
+      <c r="H159" s="222"/>
       <c r="I159" s="60"/>
       <c r="J159" s="39">
         <f t="shared" si="8"/>
@@ -50686,42 +50772,40 @@
       <c r="C160" s="197"/>
       <c r="D160" s="197"/>
       <c r="E160" s="34">
-        <f t="shared" ref="E160:E229" si="9">D160*F160</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F160" s="60"/>
       <c r="G160" s="224"/>
-      <c r="H160" s="222"/>
+      <c r="H160" s="215"/>
       <c r="I160" s="60"/>
       <c r="J160" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K160" s="225"/>
+      <c r="K160" s="81"/>
       <c r="L160" s="61"/>
-      <c r="M160" s="61" t="s">
-        <v>26</v>
-      </c>
+      <c r="M160" s="61"/>
       <c r="N160" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O160" s="216"/>
-      <c r="P160" s="217"/>
-      <c r="Q160" s="218"/>
-      <c r="R160" s="219"/>
+      <c r="O160" s="223"/>
+      <c r="P160" s="224"/>
+      <c r="Q160" s="210"/>
+      <c r="R160" s="208"/>
       <c r="S160" s="176"/>
       <c r="T160" s="177"/>
       <c r="U160" s="49"/>
       <c r="V160" s="50"/>
     </row>
     <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="203"/>
+      <c r="A161" s="204"/>
       <c r="B161" s="99"/>
       <c r="C161" s="197"/>
       <c r="D161" s="197"/>
       <c r="E161" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E161:E230" si="9">D161*F161</f>
         <v>0</v>
       </c>
       <c r="F161" s="60"/>
@@ -50734,88 +50818,90 @@
       </c>
       <c r="K161" s="225"/>
       <c r="L161" s="61"/>
-      <c r="M161" s="61"/>
+      <c r="M161" s="61" t="s">
+        <v>26</v>
+      </c>
       <c r="N161" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O161" s="223"/>
-      <c r="P161" s="224"/>
-      <c r="Q161" s="210"/>
-      <c r="R161" s="208"/>
+      <c r="O161" s="216"/>
+      <c r="P161" s="217"/>
+      <c r="Q161" s="218"/>
+      <c r="R161" s="219"/>
       <c r="S161" s="176"/>
       <c r="T161" s="177"/>
       <c r="U161" s="49"/>
       <c r="V161" s="50"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="169"/>
+      <c r="A162" s="203"/>
       <c r="B162" s="99"/>
-      <c r="C162" s="226"/>
-      <c r="D162" s="226"/>
+      <c r="C162" s="197"/>
+      <c r="D162" s="197"/>
       <c r="E162" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F162" s="60"/>
       <c r="G162" s="224"/>
-      <c r="H162" s="227"/>
+      <c r="H162" s="222"/>
       <c r="I162" s="60"/>
       <c r="J162" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K162" s="81"/>
+      <c r="K162" s="225"/>
       <c r="L162" s="61"/>
       <c r="M162" s="61"/>
       <c r="N162" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O162" s="228"/>
-      <c r="P162" s="229"/>
-      <c r="Q162" s="124"/>
-      <c r="R162" s="125"/>
+      <c r="O162" s="223"/>
+      <c r="P162" s="224"/>
+      <c r="Q162" s="210"/>
+      <c r="R162" s="208"/>
       <c r="S162" s="176"/>
       <c r="T162" s="177"/>
       <c r="U162" s="49"/>
       <c r="V162" s="50"/>
     </row>
     <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="230"/>
+      <c r="A163" s="169"/>
       <c r="B163" s="99"/>
-      <c r="C163" s="197"/>
-      <c r="D163" s="197"/>
+      <c r="C163" s="226"/>
+      <c r="D163" s="226"/>
       <c r="E163" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F163" s="60"/>
       <c r="G163" s="224"/>
-      <c r="H163" s="205"/>
+      <c r="H163" s="227"/>
       <c r="I163" s="60"/>
       <c r="J163" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K163" s="225"/>
-      <c r="L163" s="231"/>
-      <c r="M163" s="231"/>
+      <c r="K163" s="81"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="61"/>
       <c r="N163" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O163" s="228"/>
       <c r="P163" s="229"/>
-      <c r="Q163" s="218"/>
-      <c r="R163" s="219"/>
+      <c r="Q163" s="124"/>
+      <c r="R163" s="125"/>
       <c r="S163" s="176"/>
       <c r="T163" s="177"/>
       <c r="U163" s="49"/>
       <c r="V163" s="50"/>
     </row>
     <row r="164" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="203"/>
+      <c r="A164" s="230"/>
       <c r="B164" s="99"/>
       <c r="C164" s="197"/>
       <c r="D164" s="197"/>
@@ -50838,8 +50924,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O164" s="69"/>
-      <c r="P164" s="209"/>
+      <c r="O164" s="228"/>
+      <c r="P164" s="229"/>
       <c r="Q164" s="218"/>
       <c r="R164" s="219"/>
       <c r="S164" s="176"/>
@@ -50848,7 +50934,7 @@
       <c r="V164" s="50"/>
     </row>
     <row r="165" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="204"/>
+      <c r="A165" s="203"/>
       <c r="B165" s="99"/>
       <c r="C165" s="197"/>
       <c r="D165" s="197"/>
@@ -50858,21 +50944,21 @@
       </c>
       <c r="F165" s="60"/>
       <c r="G165" s="224"/>
-      <c r="H165" s="232"/>
+      <c r="H165" s="205"/>
       <c r="I165" s="60"/>
       <c r="J165" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K165" s="233"/>
+      <c r="K165" s="225"/>
       <c r="L165" s="231"/>
       <c r="M165" s="231"/>
       <c r="N165" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O165" s="223"/>
-      <c r="P165" s="224"/>
+      <c r="O165" s="69"/>
+      <c r="P165" s="209"/>
       <c r="Q165" s="218"/>
       <c r="R165" s="219"/>
       <c r="S165" s="176"/>
@@ -50880,7 +50966,7 @@
       <c r="U165" s="49"/>
       <c r="V165" s="50"/>
     </row>
-    <row r="166" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="204"/>
       <c r="B166" s="99"/>
       <c r="C166" s="197"/>
@@ -50891,21 +50977,21 @@
       </c>
       <c r="F166" s="60"/>
       <c r="G166" s="224"/>
-      <c r="H166" s="205"/>
+      <c r="H166" s="232"/>
       <c r="I166" s="60"/>
       <c r="J166" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K166" s="234"/>
-      <c r="L166" s="235"/>
-      <c r="M166" s="235"/>
+      <c r="K166" s="233"/>
+      <c r="L166" s="231"/>
+      <c r="M166" s="231"/>
       <c r="N166" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O166" s="216"/>
-      <c r="P166" s="217"/>
+      <c r="O166" s="223"/>
+      <c r="P166" s="224"/>
       <c r="Q166" s="218"/>
       <c r="R166" s="219"/>
       <c r="S166" s="176"/>
@@ -50913,8 +50999,8 @@
       <c r="U166" s="49"/>
       <c r="V166" s="50"/>
     </row>
-    <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="236"/>
+    <row r="167" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="204"/>
       <c r="B167" s="99"/>
       <c r="C167" s="197"/>
       <c r="D167" s="197"/>
@@ -50922,23 +51008,23 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F167" s="237"/>
+      <c r="F167" s="60"/>
       <c r="G167" s="224"/>
-      <c r="H167" s="213"/>
+      <c r="H167" s="205"/>
       <c r="I167" s="60"/>
       <c r="J167" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K167" s="234"/>
-      <c r="L167" s="238"/>
-      <c r="M167" s="238"/>
+      <c r="L167" s="235"/>
+      <c r="M167" s="235"/>
       <c r="N167" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O167" s="223"/>
-      <c r="P167" s="224"/>
+      <c r="O167" s="216"/>
+      <c r="P167" s="217"/>
       <c r="Q167" s="218"/>
       <c r="R167" s="219"/>
       <c r="S167" s="176"/>
@@ -50947,7 +51033,7 @@
       <c r="V167" s="50"/>
     </row>
     <row r="168" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="214"/>
+      <c r="A168" s="236"/>
       <c r="B168" s="99"/>
       <c r="C168" s="197"/>
       <c r="D168" s="197"/>
@@ -50955,23 +51041,23 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F168" s="60"/>
+      <c r="F168" s="237"/>
       <c r="G168" s="224"/>
-      <c r="H168" s="205"/>
+      <c r="H168" s="213"/>
       <c r="I168" s="60"/>
       <c r="J168" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K168" s="234"/>
-      <c r="L168" s="231"/>
-      <c r="M168" s="231"/>
+      <c r="L168" s="238"/>
+      <c r="M168" s="238"/>
       <c r="N168" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O168" s="216"/>
-      <c r="P168" s="217"/>
+      <c r="O168" s="223"/>
+      <c r="P168" s="224"/>
       <c r="Q168" s="218"/>
       <c r="R168" s="219"/>
       <c r="S168" s="176"/>
@@ -50979,8 +51065,8 @@
       <c r="U168" s="49"/>
       <c r="V168" s="50"/>
     </row>
-    <row r="169" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="204"/>
+    <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="214"/>
       <c r="B169" s="99"/>
       <c r="C169" s="197"/>
       <c r="D169" s="197"/>
@@ -50990,13 +51076,13 @@
       </c>
       <c r="F169" s="60"/>
       <c r="G169" s="224"/>
-      <c r="H169" s="239"/>
+      <c r="H169" s="205"/>
       <c r="I169" s="60"/>
       <c r="J169" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K169" s="81"/>
+      <c r="K169" s="234"/>
       <c r="L169" s="231"/>
       <c r="M169" s="231"/>
       <c r="N169" s="42">
@@ -51012,7 +51098,7 @@
       <c r="U169" s="49"/>
       <c r="V169" s="50"/>
     </row>
-    <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="204"/>
       <c r="B170" s="99"/>
       <c r="C170" s="197"/>
@@ -51023,13 +51109,13 @@
       </c>
       <c r="F170" s="60"/>
       <c r="G170" s="224"/>
-      <c r="H170" s="215"/>
+      <c r="H170" s="239"/>
       <c r="I170" s="60"/>
       <c r="J170" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K170" s="234"/>
+      <c r="K170" s="81"/>
       <c r="L170" s="231"/>
       <c r="M170" s="231"/>
       <c r="N170" s="42">
@@ -51056,7 +51142,7 @@
       </c>
       <c r="F171" s="60"/>
       <c r="G171" s="224"/>
-      <c r="H171" s="175"/>
+      <c r="H171" s="215"/>
       <c r="I171" s="60"/>
       <c r="J171" s="39">
         <f t="shared" si="8"/>
@@ -51089,15 +51175,15 @@
       </c>
       <c r="F172" s="60"/>
       <c r="G172" s="224"/>
-      <c r="H172" s="240"/>
+      <c r="H172" s="175"/>
       <c r="I172" s="60"/>
       <c r="J172" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K172" s="234"/>
-      <c r="L172" s="241"/>
-      <c r="M172" s="241"/>
+      <c r="L172" s="231"/>
+      <c r="M172" s="231"/>
       <c r="N172" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -51122,7 +51208,7 @@
       </c>
       <c r="F173" s="60"/>
       <c r="G173" s="224"/>
-      <c r="H173" s="175"/>
+      <c r="H173" s="240"/>
       <c r="I173" s="60"/>
       <c r="J173" s="39">
         <f t="shared" si="8"/>
@@ -51194,9 +51280,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K175" s="81"/>
-      <c r="L175" s="61"/>
-      <c r="M175" s="61"/>
+      <c r="K175" s="234"/>
+      <c r="L175" s="241"/>
+      <c r="M175" s="241"/>
       <c r="N175" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -51213,8 +51299,8 @@
     <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="204"/>
       <c r="B176" s="99"/>
-      <c r="C176" s="242"/>
-      <c r="D176" s="242"/>
+      <c r="C176" s="197"/>
+      <c r="D176" s="197"/>
       <c r="E176" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -51234,10 +51320,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O176" s="223"/>
-      <c r="P176" s="243"/>
-      <c r="Q176" s="124"/>
-      <c r="R176" s="125"/>
+      <c r="O176" s="216"/>
+      <c r="P176" s="217"/>
+      <c r="Q176" s="218"/>
+      <c r="R176" s="219"/>
       <c r="S176" s="176"/>
       <c r="T176" s="177"/>
       <c r="U176" s="49"/>
@@ -51277,17 +51363,17 @@
       <c r="V177" s="50"/>
     </row>
     <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="101"/>
+      <c r="A178" s="204"/>
       <c r="B178" s="99"/>
-      <c r="C178" s="226"/>
-      <c r="D178" s="226"/>
+      <c r="C178" s="242"/>
+      <c r="D178" s="242"/>
       <c r="E178" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F178" s="60"/>
       <c r="G178" s="224"/>
-      <c r="H178" s="227"/>
+      <c r="H178" s="175"/>
       <c r="I178" s="60"/>
       <c r="J178" s="39">
         <f t="shared" si="8"/>
@@ -51300,8 +51386,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O178" s="69"/>
-      <c r="P178" s="209"/>
+      <c r="O178" s="223"/>
+      <c r="P178" s="243"/>
       <c r="Q178" s="124"/>
       <c r="R178" s="125"/>
       <c r="S178" s="176"/>
@@ -51310,17 +51396,17 @@
       <c r="V178" s="50"/>
     </row>
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="204"/>
+      <c r="A179" s="101"/>
       <c r="B179" s="99"/>
-      <c r="C179" s="244"/>
-      <c r="D179" s="244"/>
+      <c r="C179" s="226"/>
+      <c r="D179" s="226"/>
       <c r="E179" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F179" s="60"/>
       <c r="G179" s="224"/>
-      <c r="H179" s="59"/>
+      <c r="H179" s="227"/>
       <c r="I179" s="60"/>
       <c r="J179" s="39">
         <f t="shared" si="8"/>
@@ -51343,17 +51429,17 @@
       <c r="V179" s="50"/>
     </row>
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="169"/>
+      <c r="A180" s="204"/>
       <c r="B180" s="99"/>
-      <c r="C180" s="226"/>
-      <c r="D180" s="226"/>
+      <c r="C180" s="244"/>
+      <c r="D180" s="244"/>
       <c r="E180" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F180" s="60"/>
       <c r="G180" s="224"/>
-      <c r="H180" s="227"/>
+      <c r="H180" s="59"/>
       <c r="I180" s="60"/>
       <c r="J180" s="39">
         <f t="shared" si="8"/>
@@ -51375,11 +51461,11 @@
       <c r="U180" s="49"/>
       <c r="V180" s="50"/>
     </row>
-    <row r="181" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="245"/>
-      <c r="B181" s="246"/>
-      <c r="C181" s="181"/>
-      <c r="D181" s="181"/>
+    <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="169"/>
+      <c r="B181" s="99"/>
+      <c r="C181" s="226"/>
+      <c r="D181" s="226"/>
       <c r="E181" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -51399,8 +51485,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O181" s="228"/>
-      <c r="P181" s="229"/>
+      <c r="O181" s="69"/>
+      <c r="P181" s="209"/>
       <c r="Q181" s="124"/>
       <c r="R181" s="125"/>
       <c r="S181" s="176"/>
@@ -51408,11 +51494,11 @@
       <c r="U181" s="49"/>
       <c r="V181" s="50"/>
     </row>
-    <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="169"/>
-      <c r="B182" s="99"/>
-      <c r="C182" s="247"/>
-      <c r="D182" s="247"/>
+    <row r="182" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="245"/>
+      <c r="B182" s="246"/>
+      <c r="C182" s="181"/>
+      <c r="D182" s="181"/>
       <c r="E182" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -51432,8 +51518,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O182" s="69"/>
-      <c r="P182" s="209"/>
+      <c r="O182" s="228"/>
+      <c r="P182" s="229"/>
       <c r="Q182" s="124"/>
       <c r="R182" s="125"/>
       <c r="S182" s="176"/>
@@ -51475,10 +51561,10 @@
       <c r="V183" s="50"/>
     </row>
     <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="248"/>
+      <c r="A184" s="169"/>
       <c r="B184" s="99"/>
-      <c r="C184" s="249"/>
-      <c r="D184" s="249"/>
+      <c r="C184" s="247"/>
+      <c r="D184" s="247"/>
       <c r="E184" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -51508,16 +51594,16 @@
       <c r="V184" s="50"/>
     </row>
     <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="169"/>
+      <c r="A185" s="248"/>
       <c r="B185" s="99"/>
-      <c r="C185" s="250"/>
-      <c r="D185" s="250"/>
+      <c r="C185" s="249"/>
+      <c r="D185" s="249"/>
       <c r="E185" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F185" s="60"/>
-      <c r="G185" s="251"/>
+      <c r="G185" s="224"/>
       <c r="H185" s="227"/>
       <c r="I185" s="60"/>
       <c r="J185" s="39">
@@ -51531,8 +51617,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O185" s="62"/>
-      <c r="P185" s="252"/>
+      <c r="O185" s="69"/>
+      <c r="P185" s="209"/>
       <c r="Q185" s="124"/>
       <c r="R185" s="125"/>
       <c r="S185" s="176"/>
@@ -51550,7 +51636,7 @@
         <v>0</v>
       </c>
       <c r="F186" s="60"/>
-      <c r="G186" s="58"/>
+      <c r="G186" s="251"/>
       <c r="H186" s="227"/>
       <c r="I186" s="60"/>
       <c r="J186" s="39">
@@ -51573,41 +51659,44 @@
       <c r="U186" s="49"/>
       <c r="V186" s="50"/>
     </row>
-    <row r="187" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="169"/>
-      <c r="B187" s="203"/>
-      <c r="C187" s="253"/>
-      <c r="D187" s="253"/>
+      <c r="B187" s="99"/>
+      <c r="C187" s="250"/>
+      <c r="D187" s="250"/>
       <c r="E187" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F187" s="254"/>
-      <c r="G187" s="224"/>
-      <c r="H187" s="255"/>
-      <c r="I187" s="254"/>
+      <c r="F187" s="60"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="227"/>
+      <c r="I187" s="60"/>
       <c r="J187" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="K187" s="81"/>
+      <c r="L187" s="61"/>
+      <c r="M187" s="61"/>
       <c r="N187" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O187" s="257"/>
-      <c r="P187" s="243"/>
-      <c r="Q187" s="258"/>
-      <c r="R187" s="259"/>
-      <c r="S187" s="260"/>
-      <c r="T187" s="261"/>
-      <c r="U187" s="262"/>
-      <c r="V187" s="263"/>
-    </row>
-    <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O187" s="62"/>
+      <c r="P187" s="252"/>
+      <c r="Q187" s="124"/>
+      <c r="R187" s="125"/>
+      <c r="S187" s="176"/>
+      <c r="T187" s="177"/>
+      <c r="U187" s="49"/>
+      <c r="V187" s="50"/>
+    </row>
+    <row r="188" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="169"/>
-      <c r="B188" s="99"/>
-      <c r="C188" s="249"/>
-      <c r="D188" s="249"/>
+      <c r="B188" s="203"/>
+      <c r="C188" s="253"/>
+      <c r="D188" s="253"/>
       <c r="E188" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -51642,29 +51731,26 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F189" s="60"/>
+      <c r="F189" s="254"/>
       <c r="G189" s="224"/>
-      <c r="H189" s="227"/>
-      <c r="I189" s="60"/>
+      <c r="H189" s="255"/>
+      <c r="I189" s="254"/>
       <c r="J189" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K189" s="81"/>
-      <c r="L189" s="61"/>
-      <c r="M189" s="61"/>
       <c r="N189" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O189" s="69"/>
-      <c r="P189" s="209"/>
-      <c r="Q189" s="124"/>
-      <c r="R189" s="125"/>
-      <c r="S189" s="176"/>
-      <c r="T189" s="177"/>
-      <c r="U189" s="49"/>
-      <c r="V189" s="50"/>
+      <c r="O189" s="257"/>
+      <c r="P189" s="243"/>
+      <c r="Q189" s="258"/>
+      <c r="R189" s="259"/>
+      <c r="S189" s="260"/>
+      <c r="T189" s="261"/>
+      <c r="U189" s="262"/>
+      <c r="V189" s="263"/>
     </row>
     <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="169"/>
@@ -51702,14 +51788,14 @@
     <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="169"/>
       <c r="B191" s="99"/>
-      <c r="C191" s="264"/>
-      <c r="D191" s="264"/>
+      <c r="C191" s="249"/>
+      <c r="D191" s="249"/>
       <c r="E191" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F191" s="60"/>
-      <c r="G191" s="251"/>
+      <c r="G191" s="224"/>
       <c r="H191" s="227"/>
       <c r="I191" s="60"/>
       <c r="J191" s="39">
@@ -51720,7 +51806,7 @@
       <c r="L191" s="61"/>
       <c r="M191" s="61"/>
       <c r="N191" s="42">
-        <f t="shared" ref="N191:N254" si="10">K191*I191</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O191" s="69"/>
@@ -51753,7 +51839,7 @@
       <c r="L192" s="61"/>
       <c r="M192" s="61"/>
       <c r="N192" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N192:N255" si="10">K192*I192</f>
         <v>0</v>
       </c>
       <c r="O192" s="69"/>
@@ -51798,11 +51884,11 @@
       <c r="U193" s="49"/>
       <c r="V193" s="50"/>
     </row>
-    <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="169"/>
-      <c r="B194" s="203"/>
-      <c r="C194" s="265"/>
-      <c r="D194" s="265"/>
+      <c r="B194" s="99"/>
+      <c r="C194" s="264"/>
+      <c r="D194" s="264"/>
       <c r="E194" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -51831,11 +51917,11 @@
       <c r="U194" s="49"/>
       <c r="V194" s="50"/>
     </row>
-    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="169"/>
-      <c r="B195" s="99"/>
-      <c r="C195" s="264"/>
-      <c r="D195" s="264"/>
+      <c r="B195" s="203"/>
+      <c r="C195" s="265"/>
+      <c r="D195" s="265"/>
       <c r="E195" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -51867,14 +51953,14 @@
     <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="169"/>
       <c r="B196" s="99"/>
-      <c r="C196" s="244"/>
-      <c r="D196" s="244"/>
+      <c r="C196" s="264"/>
+      <c r="D196" s="264"/>
       <c r="E196" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F196" s="60"/>
-      <c r="G196" s="224"/>
+      <c r="G196" s="251"/>
       <c r="H196" s="227"/>
       <c r="I196" s="60"/>
       <c r="J196" s="39">
@@ -51911,7 +51997,7 @@
       <c r="H197" s="227"/>
       <c r="I197" s="60"/>
       <c r="J197" s="39">
-        <f t="shared" ref="J197:J260" si="11">I197-F197</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K197" s="81"/>
@@ -51944,7 +52030,7 @@
       <c r="H198" s="227"/>
       <c r="I198" s="60"/>
       <c r="J198" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J198:J261" si="11">I198-F198</f>
         <v>0</v>
       </c>
       <c r="K198" s="81"/>
@@ -51996,11 +52082,11 @@
       <c r="U199" s="49"/>
       <c r="V199" s="50"/>
     </row>
-    <row r="200" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="248"/>
-      <c r="B200" s="203"/>
-      <c r="C200" s="249"/>
-      <c r="D200" s="249"/>
+    <row r="200" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="169"/>
+      <c r="B200" s="99"/>
+      <c r="C200" s="244"/>
+      <c r="D200" s="244"/>
       <c r="E200" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -52029,17 +52115,17 @@
       <c r="U200" s="49"/>
       <c r="V200" s="50"/>
     </row>
-    <row r="201" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="266"/>
-      <c r="B201" s="99"/>
-      <c r="C201" s="250"/>
-      <c r="D201" s="250"/>
+    <row r="201" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="248"/>
+      <c r="B201" s="203"/>
+      <c r="C201" s="249"/>
+      <c r="D201" s="249"/>
       <c r="E201" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F201" s="60"/>
-      <c r="G201" s="58"/>
+      <c r="G201" s="224"/>
       <c r="H201" s="227"/>
       <c r="I201" s="60"/>
       <c r="J201" s="39">
@@ -52053,8 +52139,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O201" s="62"/>
-      <c r="P201" s="252"/>
+      <c r="O201" s="69"/>
+      <c r="P201" s="209"/>
       <c r="Q201" s="124"/>
       <c r="R201" s="125"/>
       <c r="S201" s="176"/>
@@ -52062,17 +52148,17 @@
       <c r="U201" s="49"/>
       <c r="V201" s="50"/>
     </row>
-    <row r="202" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="169"/>
-      <c r="B202" s="203"/>
-      <c r="C202" s="267"/>
-      <c r="D202" s="267"/>
+    <row r="202" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="266"/>
+      <c r="B202" s="99"/>
+      <c r="C202" s="250"/>
+      <c r="D202" s="250"/>
       <c r="E202" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F202" s="60"/>
-      <c r="G202" s="224"/>
+      <c r="G202" s="58"/>
       <c r="H202" s="227"/>
       <c r="I202" s="60"/>
       <c r="J202" s="39">
@@ -52086,8 +52172,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O202" s="69"/>
-      <c r="P202" s="209"/>
+      <c r="O202" s="62"/>
+      <c r="P202" s="252"/>
       <c r="Q202" s="124"/>
       <c r="R202" s="125"/>
       <c r="S202" s="176"/>
@@ -52170,8 +52256,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F205" s="268"/>
-      <c r="G205" s="251"/>
+      <c r="F205" s="60"/>
+      <c r="G205" s="224"/>
       <c r="H205" s="227"/>
       <c r="I205" s="60"/>
       <c r="J205" s="39">
@@ -52401,7 +52487,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F212" s="60"/>
+      <c r="F212" s="268"/>
       <c r="G212" s="251"/>
       <c r="H212" s="227"/>
       <c r="I212" s="60"/>
@@ -52428,14 +52514,14 @@
     <row r="213" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="169"/>
       <c r="B213" s="203"/>
-      <c r="C213" s="244"/>
-      <c r="D213" s="244"/>
+      <c r="C213" s="267"/>
+      <c r="D213" s="267"/>
       <c r="E213" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F213" s="60"/>
-      <c r="G213" s="224"/>
+      <c r="G213" s="251"/>
       <c r="H213" s="227"/>
       <c r="I213" s="60"/>
       <c r="J213" s="39">
@@ -52689,9 +52775,9 @@
       <c r="U220" s="49"/>
       <c r="V220" s="50"/>
     </row>
-    <row r="221" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="203"/>
-      <c r="B221" s="253"/>
+    <row r="221" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="169"/>
+      <c r="B221" s="203"/>
       <c r="C221" s="244"/>
       <c r="D221" s="244"/>
       <c r="E221" s="34">
@@ -52699,8 +52785,8 @@
         <v>0</v>
       </c>
       <c r="F221" s="60"/>
-      <c r="G221" s="58"/>
-      <c r="H221" s="59"/>
+      <c r="G221" s="224"/>
+      <c r="H221" s="227"/>
       <c r="I221" s="60"/>
       <c r="J221" s="39">
         <f t="shared" si="11"/>
@@ -52722,9 +52808,9 @@
       <c r="U221" s="49"/>
       <c r="V221" s="50"/>
     </row>
-    <row r="222" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="266"/>
-      <c r="B222" s="203"/>
+    <row r="222" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="203"/>
+      <c r="B222" s="253"/>
       <c r="C222" s="244"/>
       <c r="D222" s="244"/>
       <c r="E222" s="34">
@@ -52732,8 +52818,8 @@
         <v>0</v>
       </c>
       <c r="F222" s="60"/>
-      <c r="G222" s="224"/>
-      <c r="H222" s="227"/>
+      <c r="G222" s="58"/>
+      <c r="H222" s="59"/>
       <c r="I222" s="60"/>
       <c r="J222" s="39">
         <f t="shared" si="11"/>
@@ -52855,7 +52941,7 @@
       <c r="V225" s="50"/>
     </row>
     <row r="226" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="269"/>
+      <c r="A226" s="266"/>
       <c r="B226" s="203"/>
       <c r="C226" s="244"/>
       <c r="D226" s="244"/>
@@ -52888,7 +52974,7 @@
       <c r="V226" s="50"/>
     </row>
     <row r="227" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="169"/>
+      <c r="A227" s="269"/>
       <c r="B227" s="203"/>
       <c r="C227" s="244"/>
       <c r="D227" s="244"/>
@@ -52992,7 +53078,7 @@
       <c r="C230" s="244"/>
       <c r="D230" s="244"/>
       <c r="E230" s="34">
-        <f t="shared" ref="E230:E274" si="12">D230*F230</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F230" s="60"/>
@@ -53025,7 +53111,7 @@
       <c r="C231" s="244"/>
       <c r="D231" s="244"/>
       <c r="E231" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E231:E275" si="12">D231*F231</f>
         <v>0</v>
       </c>
       <c r="F231" s="60"/>
@@ -53187,8 +53273,8 @@
     <row r="236" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="169"/>
       <c r="B236" s="203"/>
-      <c r="C236" s="270"/>
-      <c r="D236" s="270"/>
+      <c r="C236" s="244"/>
+      <c r="D236" s="244"/>
       <c r="E236" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53220,8 +53306,8 @@
     <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="169"/>
       <c r="B237" s="203"/>
-      <c r="C237" s="244"/>
-      <c r="D237" s="244"/>
+      <c r="C237" s="270"/>
+      <c r="D237" s="270"/>
       <c r="E237" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53253,8 +53339,8 @@
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="169"/>
       <c r="B238" s="203"/>
-      <c r="C238" s="264"/>
-      <c r="D238" s="264"/>
+      <c r="C238" s="244"/>
+      <c r="D238" s="244"/>
       <c r="E238" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53286,8 +53372,8 @@
     <row r="239" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="169"/>
       <c r="B239" s="203"/>
-      <c r="C239" s="265"/>
-      <c r="D239" s="265"/>
+      <c r="C239" s="264"/>
+      <c r="D239" s="264"/>
       <c r="E239" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53352,8 +53438,8 @@
     <row r="241" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="169"/>
       <c r="B241" s="203"/>
-      <c r="C241" s="264"/>
-      <c r="D241" s="264"/>
+      <c r="C241" s="265"/>
+      <c r="D241" s="265"/>
       <c r="E241" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53385,8 +53471,8 @@
     <row r="242" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="169"/>
       <c r="B242" s="203"/>
-      <c r="C242" s="249"/>
-      <c r="D242" s="249"/>
+      <c r="C242" s="264"/>
+      <c r="D242" s="264"/>
       <c r="E242" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53418,8 +53504,8 @@
     <row r="243" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="169"/>
       <c r="B243" s="203"/>
-      <c r="C243" s="197"/>
-      <c r="D243" s="197"/>
+      <c r="C243" s="249"/>
+      <c r="D243" s="249"/>
       <c r="E243" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53449,10 +53535,10 @@
       <c r="V243" s="50"/>
     </row>
     <row r="244" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="204"/>
+      <c r="A244" s="169"/>
       <c r="B244" s="203"/>
-      <c r="C244" s="226"/>
-      <c r="D244" s="226"/>
+      <c r="C244" s="197"/>
+      <c r="D244" s="197"/>
       <c r="E244" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53482,7 +53568,7 @@
       <c r="V244" s="50"/>
     </row>
     <row r="245" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="169"/>
+      <c r="A245" s="204"/>
       <c r="B245" s="203"/>
       <c r="C245" s="226"/>
       <c r="D245" s="226"/>
@@ -53548,8 +53634,8 @@
       <c r="V246" s="50"/>
     </row>
     <row r="247" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="271"/>
-      <c r="B247" s="272"/>
+      <c r="A247" s="169"/>
+      <c r="B247" s="203"/>
       <c r="C247" s="226"/>
       <c r="D247" s="226"/>
       <c r="E247" s="34">
@@ -53580,8 +53666,8 @@
       <c r="U247" s="49"/>
       <c r="V247" s="50"/>
     </row>
-    <row r="248" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="204"/>
+    <row r="248" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="271"/>
       <c r="B248" s="272"/>
       <c r="C248" s="226"/>
       <c r="D248" s="226"/>
@@ -53591,7 +53677,7 @@
       </c>
       <c r="F248" s="60"/>
       <c r="G248" s="224"/>
-      <c r="H248" s="59"/>
+      <c r="H248" s="227"/>
       <c r="I248" s="60"/>
       <c r="J248" s="39">
         <f t="shared" si="11"/>
@@ -53613,7 +53699,7 @@
       <c r="U248" s="49"/>
       <c r="V248" s="50"/>
     </row>
-    <row r="249" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="204"/>
       <c r="B249" s="272"/>
       <c r="C249" s="226"/>
@@ -53624,7 +53710,7 @@
       </c>
       <c r="F249" s="60"/>
       <c r="G249" s="224"/>
-      <c r="H249" s="227"/>
+      <c r="H249" s="59"/>
       <c r="I249" s="60"/>
       <c r="J249" s="39">
         <f t="shared" si="11"/>
@@ -53647,10 +53733,10 @@
       <c r="V249" s="50"/>
     </row>
     <row r="250" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="169"/>
+      <c r="A250" s="204"/>
       <c r="B250" s="272"/>
-      <c r="C250" s="181"/>
-      <c r="D250" s="181"/>
+      <c r="C250" s="226"/>
+      <c r="D250" s="226"/>
       <c r="E250" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53712,18 +53798,18 @@
       <c r="U251" s="49"/>
       <c r="V251" s="50"/>
     </row>
-    <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="204"/>
+    <row r="252" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="169"/>
       <c r="B252" s="272"/>
-      <c r="C252" s="242"/>
-      <c r="D252" s="242"/>
+      <c r="C252" s="181"/>
+      <c r="D252" s="181"/>
       <c r="E252" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F252" s="60"/>
       <c r="G252" s="224"/>
-      <c r="H252" s="175"/>
+      <c r="H252" s="227"/>
       <c r="I252" s="60"/>
       <c r="J252" s="39">
         <f t="shared" si="11"/>
@@ -53736,8 +53822,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O252" s="223"/>
-      <c r="P252" s="243"/>
+      <c r="O252" s="69"/>
+      <c r="P252" s="209"/>
       <c r="Q252" s="124"/>
       <c r="R252" s="125"/>
       <c r="S252" s="176"/>
@@ -53748,8 +53834,8 @@
     <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="204"/>
       <c r="B253" s="272"/>
-      <c r="C253" s="187"/>
-      <c r="D253" s="187"/>
+      <c r="C253" s="242"/>
+      <c r="D253" s="242"/>
       <c r="E253" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -53763,8 +53849,8 @@
         <v>0</v>
       </c>
       <c r="K253" s="81"/>
-      <c r="L253" s="273"/>
-      <c r="M253" s="274"/>
+      <c r="L253" s="61"/>
+      <c r="M253" s="61"/>
       <c r="N253" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -53780,17 +53866,17 @@
     </row>
     <row r="254" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="204"/>
-      <c r="B254" s="275"/>
-      <c r="C254" s="182"/>
-      <c r="D254" s="182"/>
+      <c r="B254" s="272"/>
+      <c r="C254" s="187"/>
+      <c r="D254" s="187"/>
       <c r="E254" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F254" s="182"/>
-      <c r="G254" s="276"/>
-      <c r="H254" s="277"/>
-      <c r="I254" s="57"/>
+      <c r="F254" s="60"/>
+      <c r="G254" s="224"/>
+      <c r="H254" s="175"/>
+      <c r="I254" s="60"/>
       <c r="J254" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -53832,7 +53918,7 @@
       <c r="L255" s="273"/>
       <c r="M255" s="274"/>
       <c r="N255" s="42">
-        <f t="shared" ref="N255:N274" si="13">K255*I255</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O255" s="223"/>
@@ -53846,7 +53932,7 @@
     </row>
     <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="204"/>
-      <c r="B256" s="278"/>
+      <c r="B256" s="275"/>
       <c r="C256" s="182"/>
       <c r="D256" s="182"/>
       <c r="E256" s="34">
@@ -53865,11 +53951,11 @@
       <c r="L256" s="273"/>
       <c r="M256" s="274"/>
       <c r="N256" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O256" s="69"/>
-      <c r="P256" s="212"/>
+        <f t="shared" ref="N256:N275" si="13">K256*I256</f>
+        <v>0</v>
+      </c>
+      <c r="O256" s="223"/>
+      <c r="P256" s="243"/>
       <c r="Q256" s="124"/>
       <c r="R256" s="125"/>
       <c r="S256" s="176"/>
@@ -53943,32 +54029,32 @@
       <c r="U258" s="49"/>
       <c r="V258" s="50"/>
     </row>
-    <row r="259" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="204"/>
-      <c r="B259" s="203"/>
-      <c r="C259" s="279"/>
-      <c r="D259" s="280"/>
+      <c r="B259" s="278"/>
+      <c r="C259" s="182"/>
+      <c r="D259" s="182"/>
       <c r="E259" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F259" s="38"/>
-      <c r="G259" s="281"/>
-      <c r="H259" s="282"/>
-      <c r="I259" s="60"/>
+      <c r="F259" s="182"/>
+      <c r="G259" s="276"/>
+      <c r="H259" s="277"/>
+      <c r="I259" s="57"/>
       <c r="J259" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K259" s="81"/>
       <c r="L259" s="273"/>
-      <c r="M259" s="283"/>
+      <c r="M259" s="274"/>
       <c r="N259" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O259" s="223"/>
-      <c r="P259" s="243"/>
+      <c r="O259" s="69"/>
+      <c r="P259" s="212"/>
       <c r="Q259" s="124"/>
       <c r="R259" s="125"/>
       <c r="S259" s="176"/>
@@ -53980,14 +54066,14 @@
       <c r="A260" s="204"/>
       <c r="B260" s="203"/>
       <c r="C260" s="279"/>
-      <c r="D260" s="279"/>
+      <c r="D260" s="280"/>
       <c r="E260" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F260" s="60"/>
-      <c r="G260" s="224"/>
-      <c r="H260" s="175"/>
+      <c r="F260" s="38"/>
+      <c r="G260" s="281"/>
+      <c r="H260" s="282"/>
       <c r="I260" s="60"/>
       <c r="J260" s="39">
         <f t="shared" si="11"/>
@@ -54023,7 +54109,7 @@
       <c r="H261" s="175"/>
       <c r="I261" s="60"/>
       <c r="J261" s="39">
-        <f t="shared" ref="J261:J270" si="14">I261-F261</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K261" s="81"/>
@@ -54045,8 +54131,8 @@
     <row r="262" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="204"/>
       <c r="B262" s="203"/>
-      <c r="C262" s="284"/>
-      <c r="D262" s="284"/>
+      <c r="C262" s="279"/>
+      <c r="D262" s="279"/>
       <c r="E262" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -54056,7 +54142,7 @@
       <c r="H262" s="175"/>
       <c r="I262" s="60"/>
       <c r="J262" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="J262:J271" si="14">I262-F262</f>
         <v>0</v>
       </c>
       <c r="K262" s="81"/>
@@ -54075,40 +54161,38 @@
       <c r="U262" s="49"/>
       <c r="V262" s="50"/>
     </row>
-    <row r="263" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="285"/>
+    <row r="263" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="204"/>
       <c r="B263" s="203"/>
-      <c r="C263" s="203"/>
-      <c r="D263" s="203"/>
+      <c r="C263" s="284"/>
+      <c r="D263" s="284"/>
       <c r="E263" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F263" s="254"/>
+      <c r="F263" s="60"/>
       <c r="G263" s="224"/>
-      <c r="H263" s="255"/>
-      <c r="I263" s="254">
-        <v>0</v>
-      </c>
+      <c r="H263" s="175"/>
+      <c r="I263" s="60"/>
       <c r="J263" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K263" s="286"/>
-      <c r="L263" s="286"/>
-      <c r="M263" s="286"/>
+      <c r="K263" s="81"/>
+      <c r="L263" s="273"/>
+      <c r="M263" s="283"/>
       <c r="N263" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O263" s="287"/>
+      <c r="O263" s="223"/>
       <c r="P263" s="243"/>
       <c r="Q263" s="124"/>
-      <c r="R263" s="288"/>
-      <c r="S263" s="289"/>
-      <c r="T263" s="290"/>
-      <c r="U263" s="259"/>
-      <c r="V263" s="263"/>
+      <c r="R263" s="125"/>
+      <c r="S263" s="176"/>
+      <c r="T263" s="177"/>
+      <c r="U263" s="49"/>
+      <c r="V263" s="50"/>
     </row>
     <row r="264" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="285"/>
@@ -54191,7 +54275,7 @@
       </c>
       <c r="F266" s="254"/>
       <c r="G266" s="224"/>
-      <c r="H266" s="291"/>
+      <c r="H266" s="255"/>
       <c r="I266" s="254">
         <v>0</v>
       </c>
@@ -54216,7 +54300,7 @@
       <c r="V266" s="263"/>
     </row>
     <row r="267" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="292"/>
+      <c r="A267" s="285"/>
       <c r="B267" s="203"/>
       <c r="C267" s="203"/>
       <c r="D267" s="203"/>
@@ -54226,7 +54310,7 @@
       </c>
       <c r="F267" s="254"/>
       <c r="G267" s="224"/>
-      <c r="H267" s="293"/>
+      <c r="H267" s="291"/>
       <c r="I267" s="254">
         <v>0</v>
       </c>
@@ -54247,34 +54331,38 @@
       <c r="R267" s="288"/>
       <c r="S267" s="289"/>
       <c r="T267" s="290"/>
-      <c r="U267" s="49"/>
-      <c r="V267" s="50"/>
+      <c r="U267" s="259"/>
+      <c r="V267" s="263"/>
     </row>
     <row r="268" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="294"/>
-      <c r="B268" s="295"/>
+      <c r="A268" s="292"/>
+      <c r="B268" s="203"/>
+      <c r="C268" s="203"/>
+      <c r="D268" s="203"/>
       <c r="E268" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H268" s="299"/>
-      <c r="I268" s="297">
+      <c r="F268" s="254"/>
+      <c r="G268" s="224"/>
+      <c r="H268" s="293"/>
+      <c r="I268" s="254">
         <v>0</v>
       </c>
       <c r="J268" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K268" s="300"/>
-      <c r="L268" s="300"/>
-      <c r="M268" s="300"/>
+      <c r="K268" s="286"/>
+      <c r="L268" s="286"/>
+      <c r="M268" s="286"/>
       <c r="N268" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O268" s="287"/>
       <c r="P268" s="243"/>
-      <c r="Q268" s="258"/>
+      <c r="Q268" s="124"/>
       <c r="R268" s="288"/>
       <c r="S268" s="289"/>
       <c r="T268" s="290"/>
@@ -54288,6 +54376,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="H269" s="299"/>
       <c r="I269" s="297">
         <v>0</v>
       </c>
@@ -54318,7 +54407,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I270" s="302">
+      <c r="I270" s="297">
         <v>0</v>
       </c>
       <c r="J270" s="39">
@@ -54341,25 +54430,22 @@
       <c r="U270" s="49"/>
       <c r="V270" s="50"/>
     </row>
-    <row r="271" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="294"/>
       <c r="B271" s="295"/>
-      <c r="E271" s="34" t="e">
+      <c r="E271" s="34">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F271" s="536" t="s">
-        <v>27</v>
-      </c>
-      <c r="G271" s="536"/>
-      <c r="H271" s="537"/>
-      <c r="I271" s="303">
-        <f>SUM(I4:I270)</f>
-        <v>125872.65</v>
-      </c>
-      <c r="J271" s="304"/>
+        <v>0</v>
+      </c>
+      <c r="I271" s="302">
+        <v>0</v>
+      </c>
+      <c r="J271" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="K271" s="300"/>
-      <c r="L271" s="305"/>
+      <c r="L271" s="300"/>
       <c r="M271" s="300"/>
       <c r="N271" s="42">
         <f t="shared" si="13"/>
@@ -54369,19 +54455,27 @@
       <c r="P271" s="243"/>
       <c r="Q271" s="258"/>
       <c r="R271" s="288"/>
-      <c r="S271" s="306"/>
-      <c r="T271" s="261"/>
-      <c r="U271" s="262"/>
+      <c r="S271" s="289"/>
+      <c r="T271" s="290"/>
+      <c r="U271" s="49"/>
       <c r="V271" s="50"/>
     </row>
-    <row r="272" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="307"/>
+    <row r="272" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="294"/>
       <c r="B272" s="295"/>
-      <c r="E272" s="34">
+      <c r="E272" s="34" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I272" s="308"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F272" s="542" t="s">
+        <v>27</v>
+      </c>
+      <c r="G272" s="542"/>
+      <c r="H272" s="543"/>
+      <c r="I272" s="303">
+        <f>SUM(I4:I271)</f>
+        <v>207586.13999999998</v>
+      </c>
       <c r="J272" s="304"/>
       <c r="K272" s="300"/>
       <c r="L272" s="305"/>
@@ -54390,23 +54484,26 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O272" s="309"/>
-      <c r="Q272" s="6"/>
-      <c r="R272" s="310"/>
-      <c r="S272" s="311"/>
-      <c r="T272" s="312"/>
-      <c r="V272" s="9"/>
-    </row>
-    <row r="273" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="294"/>
+      <c r="O272" s="287"/>
+      <c r="P272" s="243"/>
+      <c r="Q272" s="258"/>
+      <c r="R272" s="288"/>
+      <c r="S272" s="306"/>
+      <c r="T272" s="261"/>
+      <c r="U272" s="262"/>
+      <c r="V272" s="50"/>
+    </row>
+    <row r="273" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="307"/>
       <c r="B273" s="295"/>
       <c r="E273" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J273" s="297"/>
+      <c r="I273" s="308"/>
+      <c r="J273" s="304"/>
       <c r="K273" s="300"/>
-      <c r="L273" s="300"/>
+      <c r="L273" s="305"/>
       <c r="M273" s="300"/>
       <c r="N273" s="42">
         <f t="shared" si="13"/>
@@ -54427,68 +54524,75 @@
         <v>0</v>
       </c>
       <c r="J274" s="297"/>
-      <c r="K274" s="314"/>
+      <c r="K274" s="300"/>
+      <c r="L274" s="300"/>
+      <c r="M274" s="300"/>
       <c r="N274" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O274" s="315"/>
+      <c r="O274" s="309"/>
       <c r="Q274" s="6"/>
       <c r="R274" s="310"/>
       <c r="S274" s="311"/>
-      <c r="T274" s="316"/>
+      <c r="T274" s="312"/>
       <c r="V274" s="9"/>
     </row>
     <row r="275" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="294"/>
-      <c r="H275" s="318"/>
-      <c r="I275" s="319" t="s">
-        <v>28</v>
-      </c>
-      <c r="J275" s="320"/>
-      <c r="K275" s="320"/>
-      <c r="L275" s="321">
-        <f>SUM(L263:L274)</f>
-        <v>0</v>
-      </c>
-      <c r="M275" s="322"/>
-      <c r="N275" s="323">
-        <f>SUM(N4:N274)</f>
-        <v>4382321.8949999996</v>
-      </c>
-      <c r="O275" s="324"/>
-      <c r="Q275" s="325">
-        <f>SUM(Q4:Q274)</f>
-        <v>0</v>
-      </c>
-      <c r="R275" s="256"/>
-      <c r="S275" s="326">
-        <f>SUM(S21:S274)</f>
-        <v>0</v>
-      </c>
-      <c r="T275" s="327"/>
-      <c r="U275" s="328"/>
-      <c r="V275" s="329">
-        <f>SUM(V263:V274)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B275" s="295"/>
+      <c r="E275" s="34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J275" s="297"/>
+      <c r="K275" s="314"/>
+      <c r="N275" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O275" s="315"/>
+      <c r="Q275" s="6"/>
+      <c r="R275" s="310"/>
+      <c r="S275" s="311"/>
+      <c r="T275" s="316"/>
+      <c r="V275" s="9"/>
+    </row>
+    <row r="276" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="294"/>
       <c r="H276" s="318"/>
-      <c r="I276" s="330"/>
-      <c r="J276" s="331"/>
-      <c r="K276" s="332"/>
-      <c r="L276" s="332"/>
-      <c r="M276" s="332"/>
-      <c r="N276" s="333"/>
+      <c r="I276" s="319" t="s">
+        <v>28</v>
+      </c>
+      <c r="J276" s="320"/>
+      <c r="K276" s="320"/>
+      <c r="L276" s="321">
+        <f>SUM(L264:L275)</f>
+        <v>0</v>
+      </c>
+      <c r="M276" s="322"/>
+      <c r="N276" s="323">
+        <f>SUM(N4:N275)</f>
+        <v>7308037.4469999997</v>
+      </c>
       <c r="O276" s="324"/>
-      <c r="R276" s="310"/>
-      <c r="S276" s="334"/>
-      <c r="U276" s="336"/>
-      <c r="V276"/>
-    </row>
-    <row r="277" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q276" s="325">
+        <f>SUM(Q4:Q275)</f>
+        <v>0</v>
+      </c>
+      <c r="R276" s="256"/>
+      <c r="S276" s="326">
+        <f>SUM(S21:S275)</f>
+        <v>0</v>
+      </c>
+      <c r="T276" s="327"/>
+      <c r="U276" s="328"/>
+      <c r="V276" s="329">
+        <f>SUM(V264:V275)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" s="294"/>
       <c r="H277" s="318"/>
       <c r="I277" s="330"/>
@@ -54503,55 +54607,56 @@
       <c r="U277" s="336"/>
       <c r="V277"/>
     </row>
-    <row r="278" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="294"/>
-      <c r="I278" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="J278" s="338"/>
-      <c r="K278" s="338"/>
-      <c r="L278" s="339"/>
-      <c r="M278" s="339"/>
-      <c r="N278" s="340">
-        <f>V275+S275+Q275+N275+L275</f>
-        <v>4382321.8949999996</v>
-      </c>
-      <c r="O278" s="341"/>
+      <c r="H278" s="318"/>
+      <c r="I278" s="330"/>
+      <c r="J278" s="331"/>
+      <c r="K278" s="332"/>
+      <c r="L278" s="332"/>
+      <c r="M278" s="332"/>
+      <c r="N278" s="333"/>
+      <c r="O278" s="324"/>
       <c r="R278" s="310"/>
       <c r="S278" s="334"/>
       <c r="U278" s="336"/>
       <c r="V278"/>
     </row>
-    <row r="279" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="342"/>
-      <c r="I279" s="343"/>
-      <c r="J279" s="344"/>
-      <c r="K279" s="344"/>
-      <c r="L279" s="345"/>
-      <c r="M279" s="345"/>
-      <c r="N279" s="346"/>
-      <c r="O279" s="347"/>
+    <row r="279" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="294"/>
+      <c r="I279" s="337" t="s">
+        <v>29</v>
+      </c>
+      <c r="J279" s="338"/>
+      <c r="K279" s="338"/>
+      <c r="L279" s="339"/>
+      <c r="M279" s="339"/>
+      <c r="N279" s="340">
+        <f>V276+S276+Q276+N276+L276</f>
+        <v>7308037.4469999997</v>
+      </c>
+      <c r="O279" s="341"/>
       <c r="R279" s="310"/>
       <c r="S279" s="334"/>
       <c r="U279" s="336"/>
       <c r="V279"/>
     </row>
-    <row r="280" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="342"/>
-      <c r="I280" s="330"/>
-      <c r="J280" s="331"/>
-      <c r="K280" s="332"/>
-      <c r="L280" s="332"/>
-      <c r="M280" s="332"/>
-      <c r="N280" s="333"/>
-      <c r="O280" s="324"/>
+      <c r="I280" s="343"/>
+      <c r="J280" s="344"/>
+      <c r="K280" s="344"/>
+      <c r="L280" s="345"/>
+      <c r="M280" s="345"/>
+      <c r="N280" s="346"/>
+      <c r="O280" s="347"/>
       <c r="R280" s="310"/>
       <c r="S280" s="334"/>
       <c r="U280" s="336"/>
       <c r="V280"/>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="294"/>
+    <row r="281" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="342"/>
       <c r="I281" s="330"/>
       <c r="J281" s="331"/>
       <c r="K281" s="332"/>
@@ -54567,21 +54672,26 @@
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" s="294"/>
       <c r="I282" s="330"/>
-      <c r="J282" s="348"/>
+      <c r="J282" s="331"/>
       <c r="K282" s="332"/>
       <c r="L282" s="332"/>
       <c r="M282" s="332"/>
       <c r="N282" s="333"/>
-      <c r="O282" s="349"/>
+      <c r="O282" s="324"/>
       <c r="R282" s="310"/>
       <c r="S282" s="334"/>
       <c r="U282" s="336"/>
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="342"/>
+      <c r="A283" s="294"/>
+      <c r="I283" s="330"/>
+      <c r="J283" s="348"/>
+      <c r="K283" s="332"/>
+      <c r="L283" s="332"/>
+      <c r="M283" s="332"/>
       <c r="N283" s="333"/>
-      <c r="O283" s="351"/>
+      <c r="O283" s="349"/>
       <c r="R283" s="310"/>
       <c r="S283" s="334"/>
       <c r="U283" s="336"/>
@@ -54589,22 +54699,22 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="342"/>
+      <c r="N284" s="333"/>
       <c r="O284" s="351"/>
+      <c r="R284" s="310"/>
       <c r="S284" s="334"/>
       <c r="U284" s="336"/>
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="294"/>
-      <c r="B285" s="295"/>
-      <c r="N285" s="333"/>
-      <c r="O285" s="324"/>
+      <c r="A285" s="342"/>
+      <c r="O285" s="351"/>
       <c r="S285" s="334"/>
       <c r="U285" s="336"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="342"/>
+      <c r="A286" s="294"/>
       <c r="B286" s="295"/>
       <c r="N286" s="333"/>
       <c r="O286" s="324"/>
@@ -54613,13 +54723,8 @@
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="294"/>
+      <c r="A287" s="342"/>
       <c r="B287" s="295"/>
-      <c r="I287" s="330"/>
-      <c r="J287" s="331"/>
-      <c r="K287" s="332"/>
-      <c r="L287" s="332"/>
-      <c r="M287" s="332"/>
       <c r="N287" s="333"/>
       <c r="O287" s="324"/>
       <c r="S287" s="334"/>
@@ -54627,7 +54732,7 @@
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="342"/>
+      <c r="A288" s="294"/>
       <c r="B288" s="295"/>
       <c r="I288" s="330"/>
       <c r="J288" s="331"/>
@@ -54641,11 +54746,13 @@
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="294"/>
+      <c r="A289" s="342"/>
       <c r="B289" s="295"/>
-      <c r="I289" s="352"/>
-      <c r="J289" s="328"/>
-      <c r="K289" s="328"/>
+      <c r="I289" s="330"/>
+      <c r="J289" s="331"/>
+      <c r="K289" s="332"/>
+      <c r="L289" s="332"/>
+      <c r="M289" s="332"/>
       <c r="N289" s="333"/>
       <c r="O289" s="324"/>
       <c r="S289" s="334"/>
@@ -54653,39 +54760,31 @@
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="342"/>
+      <c r="A290" s="294"/>
+      <c r="B290" s="295"/>
+      <c r="I290" s="352"/>
+      <c r="J290" s="328"/>
+      <c r="K290" s="328"/>
+      <c r="N290" s="333"/>
+      <c r="O290" s="324"/>
       <c r="S290" s="334"/>
       <c r="U290" s="336"/>
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="294"/>
+      <c r="A291" s="342"/>
       <c r="S291" s="334"/>
       <c r="U291" s="336"/>
       <c r="V291"/>
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" s="294"/>
-      <c r="B292" s="354"/>
-      <c r="C292" s="354"/>
-      <c r="D292" s="354"/>
-      <c r="E292" s="355"/>
-      <c r="F292" s="356"/>
-      <c r="G292" s="357"/>
-      <c r="H292" s="358"/>
-      <c r="I292" s="359"/>
-      <c r="J292"/>
-      <c r="K292"/>
-      <c r="L292"/>
-      <c r="M292"/>
-      <c r="P292" s="360"/>
-      <c r="Q292" s="334"/>
       <c r="S292" s="334"/>
       <c r="U292" s="336"/>
       <c r="V292"/>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A293" s="342"/>
+      <c r="A293" s="294"/>
       <c r="B293" s="354"/>
       <c r="C293" s="354"/>
       <c r="D293" s="354"/>
@@ -54745,7 +54844,7 @@
       <c r="V295"/>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A296" s="361"/>
+      <c r="A296" s="342"/>
       <c r="B296" s="354"/>
       <c r="C296" s="354"/>
       <c r="D296" s="354"/>
@@ -54765,7 +54864,7 @@
       <c r="V296"/>
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A297" s="307"/>
+      <c r="A297" s="361"/>
       <c r="B297" s="354"/>
       <c r="C297" s="354"/>
       <c r="D297" s="354"/>
@@ -54785,7 +54884,7 @@
       <c r="V297"/>
     </row>
     <row r="298" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A298" s="294"/>
+      <c r="A298" s="307"/>
       <c r="B298" s="354"/>
       <c r="C298" s="354"/>
       <c r="D298" s="354"/>
@@ -54924,18 +55023,38 @@
       <c r="U304" s="336"/>
       <c r="V304"/>
     </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A305" s="294"/>
+      <c r="B305" s="354"/>
+      <c r="C305" s="354"/>
+      <c r="D305" s="354"/>
+      <c r="E305" s="355"/>
+      <c r="F305" s="356"/>
+      <c r="G305" s="357"/>
+      <c r="H305" s="358"/>
+      <c r="I305" s="359"/>
+      <c r="J305"/>
+      <c r="K305"/>
+      <c r="L305"/>
+      <c r="M305"/>
+      <c r="P305" s="360"/>
+      <c r="Q305" s="334"/>
+      <c r="S305" s="334"/>
+      <c r="U305" s="336"/>
+      <c r="V305"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="L99:M100"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="P106:P107"/>
-    <mergeCell ref="F271:H271"/>
+    <mergeCell ref="L100:M101"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="F272:H272"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/ENTRADAS  OBRADOR   M A Y O      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/ENTRADAS  OBRADOR   M A Y O      2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="301">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>A-1372</t>
+  </si>
+  <si>
+    <t>Transfernecia  b</t>
   </si>
 </sst>
 </file>
@@ -4086,6 +4089,24 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4131,6 +4152,126 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4167,126 +4308,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4302,6 +4323,18 @@
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4332,6 +4365,12 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4342,42 +4381,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4709,49 +4712,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="545" t="s">
+      <c r="A1" s="551" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="545"/>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="546"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="548" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="549"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="545"/>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -4759,8 +4762,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="547"/>
-      <c r="T2" s="547"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -4805,10 +4808,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="550" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="551"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -8129,8 +8132,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="552"/>
-      <c r="M90" s="553"/>
+      <c r="L90" s="558"/>
+      <c r="M90" s="559"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8162,8 +8165,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="552"/>
-      <c r="M91" s="553"/>
+      <c r="L91" s="558"/>
+      <c r="M91" s="559"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8366,8 +8369,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="554"/>
-      <c r="P97" s="556"/>
+      <c r="O97" s="560"/>
+      <c r="P97" s="562"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -8399,8 +8402,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="555"/>
-      <c r="P98" s="557"/>
+      <c r="O98" s="561"/>
+      <c r="P98" s="563"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -13792,11 +13795,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="543" t="s">
+      <c r="F262" s="549" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="543"/>
-      <c r="H262" s="544"/>
+      <c r="G262" s="549"/>
+      <c r="H262" s="550"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -14422,49 +14425,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="545" t="s">
+      <c r="A1" s="551" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="545"/>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="546"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="548" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="549"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="545"/>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -14472,8 +14475,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="547"/>
-      <c r="T2" s="547"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -14518,10 +14521,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="550" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="551"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -16854,13 +16857,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="600" t="s">
+      <c r="A59" s="566" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="602" t="s">
+      <c r="C59" s="568" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16868,10 +16871,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="604">
+      <c r="G59" s="570">
         <v>44981</v>
       </c>
-      <c r="H59" s="606" t="s">
+      <c r="H59" s="572" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -16890,10 +16893,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="608" t="s">
+      <c r="O59" s="574" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="598">
+      <c r="P59" s="564">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -16904,18 +16907,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="601"/>
+      <c r="A60" s="567"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="603"/>
+      <c r="C60" s="569"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="605"/>
-      <c r="H60" s="607"/>
+      <c r="G60" s="571"/>
+      <c r="H60" s="573"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -16932,8 +16935,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="609"/>
-      <c r="P60" s="599"/>
+      <c r="O60" s="575"/>
+      <c r="P60" s="565"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17171,7 +17174,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="558" t="s">
+      <c r="A66" s="604" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17183,10 +17186,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="560">
+      <c r="G66" s="606">
         <v>44973</v>
       </c>
-      <c r="H66" s="562" t="s">
+      <c r="H66" s="608" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17205,10 +17208,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="564" t="s">
+      <c r="O66" s="610" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="566">
+      <c r="P66" s="612">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17219,7 +17222,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="559"/>
+      <c r="A67" s="605"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17229,8 +17232,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="561"/>
-      <c r="H67" s="563"/>
+      <c r="G67" s="607"/>
+      <c r="H67" s="609"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17247,8 +17250,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="565"/>
-      <c r="P67" s="567"/>
+      <c r="O67" s="611"/>
+      <c r="P67" s="613"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17306,13 +17309,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="588" t="s">
+      <c r="A69" s="578" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="590" t="s">
+      <c r="C69" s="580" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17320,10 +17323,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="594">
+      <c r="G69" s="584">
         <v>44979</v>
       </c>
-      <c r="H69" s="592" t="s">
+      <c r="H69" s="582" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17342,10 +17345,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="596" t="s">
+      <c r="O69" s="586" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="586">
+      <c r="P69" s="576">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17356,18 +17359,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="589"/>
+      <c r="A70" s="579"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="591"/>
+      <c r="C70" s="581"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="595"/>
-      <c r="H70" s="593"/>
+      <c r="G70" s="585"/>
+      <c r="H70" s="583"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17384,8 +17387,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="597"/>
-      <c r="P70" s="587"/>
+      <c r="O70" s="587"/>
+      <c r="P70" s="577"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17394,13 +17397,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="576" t="s">
+      <c r="A71" s="592" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="574" t="s">
+      <c r="C71" s="590" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17408,10 +17411,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="579">
+      <c r="G71" s="595">
         <v>44982</v>
       </c>
-      <c r="H71" s="581" t="s">
+      <c r="H71" s="597" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -17430,10 +17433,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="570" t="s">
+      <c r="O71" s="600" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="572">
+      <c r="P71" s="588">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -17444,18 +17447,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="576"/>
+      <c r="A72" s="592"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="578"/>
+      <c r="C72" s="594"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="579"/>
-      <c r="H72" s="582"/>
+      <c r="G72" s="595"/>
+      <c r="H72" s="598"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -17472,8 +17475,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="584"/>
-      <c r="P72" s="585"/>
+      <c r="O72" s="601"/>
+      <c r="P72" s="603"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -17482,18 +17485,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="577"/>
+      <c r="A73" s="593"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="575"/>
+      <c r="C73" s="591"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="580"/>
-      <c r="H73" s="583"/>
+      <c r="G73" s="596"/>
+      <c r="H73" s="599"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -17510,8 +17513,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="571"/>
-      <c r="P73" s="573"/>
+      <c r="O73" s="602"/>
+      <c r="P73" s="589"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17687,13 +17690,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="558" t="s">
+      <c r="A80" s="604" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="574" t="s">
+      <c r="C80" s="590" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -17704,7 +17707,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="568" t="s">
+      <c r="H80" s="614" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -17723,10 +17726,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="570" t="s">
+      <c r="O80" s="600" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="572">
+      <c r="P80" s="588">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -17737,11 +17740,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="559"/>
+      <c r="A81" s="605"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="575"/>
+      <c r="C81" s="591"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -17750,7 +17753,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="569"/>
+      <c r="H81" s="615"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -17767,8 +17770,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="571"/>
-      <c r="P81" s="573"/>
+      <c r="O81" s="602"/>
+      <c r="P81" s="589"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -18319,8 +18322,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="552"/>
-      <c r="M99" s="553"/>
+      <c r="L99" s="558"/>
+      <c r="M99" s="559"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18352,8 +18355,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="552"/>
-      <c r="M100" s="553"/>
+      <c r="L100" s="558"/>
+      <c r="M100" s="559"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18556,8 +18559,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="554"/>
-      <c r="P106" s="556"/>
+      <c r="O106" s="560"/>
+      <c r="P106" s="562"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -18589,8 +18592,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="555"/>
-      <c r="P107" s="557"/>
+      <c r="O107" s="561"/>
+      <c r="P107" s="563"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -23982,11 +23985,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="543" t="s">
+      <c r="F271" s="549" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="543"/>
-      <c r="H271" s="544"/>
+      <c r="G271" s="549"/>
+      <c r="H271" s="550"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -24560,26 +24563,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -24596,6 +24579,26 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24643,49 +24646,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="545" t="s">
+      <c r="A1" s="551" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="545"/>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="546"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="548" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="549"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="545"/>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -24693,8 +24696,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="547"/>
-      <c r="T2" s="547"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -24739,10 +24742,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="550" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="551"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -27209,10 +27212,10 @@
         <f t="shared" si="2"/>
         <v>48636</v>
       </c>
-      <c r="O59" s="637" t="s">
+      <c r="O59" s="547" t="s">
         <v>64</v>
       </c>
-      <c r="P59" s="636">
+      <c r="P59" s="546">
         <v>45065</v>
       </c>
       <c r="Q59" s="158"/>
@@ -28323,13 +28326,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="558" t="s">
+      <c r="A83" s="604" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="574" t="s">
+      <c r="C83" s="590" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28337,10 +28340,10 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="604">
+      <c r="G83" s="570">
         <v>45014</v>
       </c>
-      <c r="H83" s="610" t="s">
+      <c r="H83" s="616" t="s">
         <v>180</v>
       </c>
       <c r="I83" s="155">
@@ -28353,7 +28356,7 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="614" t="s">
+      <c r="L83" s="620" t="s">
         <v>194</v>
       </c>
       <c r="M83" s="61"/>
@@ -28361,10 +28364,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O83" s="554" t="s">
+      <c r="O83" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="P83" s="612">
+      <c r="P83" s="618">
         <v>45016</v>
       </c>
       <c r="Q83" s="158"/>
@@ -28375,18 +28378,18 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="559"/>
+      <c r="A84" s="605"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="575"/>
+      <c r="C84" s="591"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="605"/>
-      <c r="H84" s="611"/>
+      <c r="G84" s="571"/>
+      <c r="H84" s="617"/>
       <c r="I84" s="155">
         <v>142.5771</v>
       </c>
@@ -28397,14 +28400,14 @@
       <c r="K84" s="40">
         <v>70</v>
       </c>
-      <c r="L84" s="614"/>
+      <c r="L84" s="620"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O84" s="555"/>
-      <c r="P84" s="613"/>
+      <c r="O84" s="561"/>
+      <c r="P84" s="619"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -28835,8 +28838,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="552"/>
-      <c r="M98" s="553"/>
+      <c r="L98" s="558"/>
+      <c r="M98" s="559"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28868,8 +28871,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="552"/>
-      <c r="M99" s="553"/>
+      <c r="L99" s="558"/>
+      <c r="M99" s="559"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29072,8 +29075,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="554"/>
-      <c r="P105" s="556"/>
+      <c r="O105" s="560"/>
+      <c r="P105" s="562"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -29105,8 +29108,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="555"/>
-      <c r="P106" s="557"/>
+      <c r="O106" s="561"/>
+      <c r="P106" s="563"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -34498,11 +34501,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F270" s="543" t="s">
+      <c r="F270" s="549" t="s">
         <v>27</v>
       </c>
-      <c r="G270" s="543"/>
-      <c r="H270" s="544"/>
+      <c r="G270" s="549"/>
+      <c r="H270" s="550"/>
       <c r="I270" s="303">
         <f>SUM(I4:I269)</f>
         <v>601739.64578900009</v>
@@ -35138,49 +35141,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="545" t="s">
+      <c r="A1" s="551" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="545"/>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="546"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="548" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="549"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="545"/>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -35188,8 +35191,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="547"/>
-      <c r="T2" s="547"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -35234,10 +35237,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="550" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="551"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -37650,8 +37653,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O59" s="629"/>
-      <c r="P59" s="631"/>
+      <c r="O59" s="543"/>
+      <c r="P59" s="545"/>
       <c r="Q59" s="374"/>
       <c r="R59" s="125"/>
       <c r="S59" s="48"/>
@@ -37660,13 +37663,13 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="638" t="s">
+      <c r="A60" s="635" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="574" t="s">
+      <c r="C60" s="590" t="s">
         <v>292</v>
       </c>
       <c r="D60" s="409"/>
@@ -37674,10 +37677,10 @@
       <c r="F60" s="410">
         <v>847.4</v>
       </c>
-      <c r="G60" s="625">
+      <c r="G60" s="637">
         <v>45023</v>
       </c>
-      <c r="H60" s="627" t="s">
+      <c r="H60" s="639" t="s">
         <v>293</v>
       </c>
       <c r="I60" s="402">
@@ -37696,13 +37699,13 @@
         <f t="shared" si="2"/>
         <v>76266</v>
       </c>
-      <c r="O60" s="634" t="s">
+      <c r="O60" s="621" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="632">
+      <c r="P60" s="623">
         <v>45065</v>
       </c>
-      <c r="Q60" s="630"/>
+      <c r="Q60" s="544"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
       <c r="T60" s="48"/>
@@ -37710,18 +37713,18 @@
       <c r="V60" s="50"/>
     </row>
     <row r="61" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="639"/>
+      <c r="A61" s="636"/>
       <c r="B61" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="575"/>
+      <c r="C61" s="591"/>
       <c r="D61" s="409"/>
       <c r="E61" s="56"/>
       <c r="F61" s="410">
         <v>175.4</v>
       </c>
-      <c r="G61" s="626"/>
-      <c r="H61" s="628"/>
+      <c r="G61" s="638"/>
+      <c r="H61" s="640"/>
       <c r="I61" s="402">
         <v>175.4</v>
       </c>
@@ -37738,8 +37741,8 @@
         <f t="shared" si="2"/>
         <v>15435.2</v>
       </c>
-      <c r="O61" s="635"/>
-      <c r="P61" s="633"/>
+      <c r="O61" s="622"/>
+      <c r="P61" s="624"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -37754,7 +37757,7 @@
       <c r="B62" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="640" t="s">
+      <c r="C62" s="548" t="s">
         <v>298</v>
       </c>
       <c r="D62" s="160"/>
@@ -37900,13 +37903,13 @@
       <c r="V64" s="50"/>
     </row>
     <row r="65" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="615" t="s">
+      <c r="A65" s="625" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="519" t="s">
         <v>255</v>
       </c>
-      <c r="C65" s="617" t="s">
+      <c r="C65" s="627" t="s">
         <v>256</v>
       </c>
       <c r="D65" s="517"/>
@@ -37914,10 +37917,10 @@
       <c r="F65" s="493">
         <v>9084.5</v>
       </c>
-      <c r="G65" s="621">
+      <c r="G65" s="631">
         <v>45041</v>
       </c>
-      <c r="H65" s="619">
+      <c r="H65" s="629">
         <v>145029</v>
       </c>
       <c r="I65" s="515">
@@ -37936,10 +37939,10 @@
         <f t="shared" si="2"/>
         <v>417887</v>
       </c>
-      <c r="O65" s="623" t="s">
+      <c r="O65" s="633" t="s">
         <v>22</v>
       </c>
-      <c r="P65" s="572">
+      <c r="P65" s="588">
         <v>45054</v>
       </c>
       <c r="Q65" s="166"/>
@@ -37950,18 +37953,18 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="616"/>
+      <c r="A66" s="626"/>
       <c r="B66" s="519" t="s">
         <v>257</v>
       </c>
-      <c r="C66" s="618"/>
+      <c r="C66" s="628"/>
       <c r="D66" s="517"/>
       <c r="E66" s="56"/>
       <c r="F66" s="526">
         <v>1007.3</v>
       </c>
-      <c r="G66" s="622"/>
-      <c r="H66" s="620"/>
+      <c r="G66" s="632"/>
+      <c r="H66" s="630"/>
       <c r="I66" s="527">
         <v>1007.3</v>
       </c>
@@ -37978,8 +37981,8 @@
         <f t="shared" si="2"/>
         <v>63459.899999999994</v>
       </c>
-      <c r="O66" s="624"/>
-      <c r="P66" s="573"/>
+      <c r="O66" s="634"/>
+      <c r="P66" s="589"/>
       <c r="Q66" s="166"/>
       <c r="R66" s="125"/>
       <c r="S66" s="48"/>
@@ -38640,8 +38643,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O86" s="554"/>
-      <c r="P86" s="612"/>
+      <c r="O86" s="560"/>
+      <c r="P86" s="618"/>
       <c r="Q86" s="158"/>
       <c r="R86" s="125"/>
       <c r="S86" s="176"/>
@@ -38670,8 +38673,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O87" s="555"/>
-      <c r="P87" s="613"/>
+      <c r="O87" s="561"/>
+      <c r="P87" s="619"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -39102,8 +39105,8 @@
         <v>0</v>
       </c>
       <c r="K101" s="81"/>
-      <c r="L101" s="552"/>
-      <c r="M101" s="553"/>
+      <c r="L101" s="558"/>
+      <c r="M101" s="559"/>
       <c r="N101" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39135,8 +39138,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="552"/>
-      <c r="M102" s="553"/>
+      <c r="L102" s="558"/>
+      <c r="M102" s="559"/>
       <c r="N102" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39339,8 +39342,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O108" s="554"/>
-      <c r="P108" s="556"/>
+      <c r="O108" s="560"/>
+      <c r="P108" s="562"/>
       <c r="Q108" s="158"/>
       <c r="R108" s="125"/>
       <c r="S108" s="176"/>
@@ -39372,8 +39375,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O109" s="555"/>
-      <c r="P109" s="557"/>
+      <c r="O109" s="561"/>
+      <c r="P109" s="563"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -44765,11 +44768,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F273" s="543" t="s">
+      <c r="F273" s="549" t="s">
         <v>27</v>
       </c>
-      <c r="G273" s="543"/>
-      <c r="H273" s="544"/>
+      <c r="G273" s="549"/>
+      <c r="H273" s="550"/>
       <c r="I273" s="303">
         <f>SUM(I4:I272)</f>
         <v>377288.92000000004</v>
@@ -45343,13 +45346,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
     <mergeCell ref="L101:M102"/>
     <mergeCell ref="O108:O109"/>
     <mergeCell ref="P108:P109"/>
@@ -45365,6 +45361,13 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45378,9 +45381,9 @@
   </sheetPr>
   <dimension ref="A1:X305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45410,49 +45413,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="545" t="s">
+      <c r="A1" s="551" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="545"/>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="546"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="548" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="549"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="545"/>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -45460,8 +45463,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="547"/>
-      <c r="T2" s="547"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -45506,10 +45509,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="550" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="551"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -45672,7 +45675,9 @@
       <c r="G6" s="376">
         <v>45053</v>
       </c>
-      <c r="H6" s="505"/>
+      <c r="H6" s="505">
+        <v>42222</v>
+      </c>
       <c r="I6" s="491">
         <v>22750</v>
       </c>
@@ -45689,8 +45694,12 @@
         <f>K6*I6</f>
         <v>789425.00000000012</v>
       </c>
-      <c r="O6" s="472"/>
-      <c r="P6" s="473"/>
+      <c r="O6" s="472" t="s">
+        <v>300</v>
+      </c>
+      <c r="P6" s="473">
+        <v>45068</v>
+      </c>
       <c r="Q6" s="64"/>
       <c r="R6" s="65"/>
       <c r="S6" s="47"/>
@@ -45725,7 +45734,9 @@
       <c r="G7" s="376">
         <v>45054</v>
       </c>
-      <c r="H7" s="506"/>
+      <c r="H7" s="506">
+        <v>42248</v>
+      </c>
       <c r="I7" s="491">
         <v>24470</v>
       </c>
@@ -45742,8 +45753,12 @@
         <f t="shared" ref="N7:N8" si="3">K7*I7</f>
         <v>849109.00000000012</v>
       </c>
-      <c r="O7" s="472"/>
-      <c r="P7" s="473"/>
+      <c r="O7" s="472" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="473">
+        <v>45068</v>
+      </c>
       <c r="Q7" s="64"/>
       <c r="R7" s="65"/>
       <c r="S7" s="47"/>
@@ -45772,7 +45787,9 @@
       <c r="G8" s="376">
         <v>45056</v>
       </c>
-      <c r="H8" s="506"/>
+      <c r="H8" s="506">
+        <v>42267</v>
+      </c>
       <c r="I8" s="491">
         <v>24140</v>
       </c>
@@ -45789,8 +45806,12 @@
         <f t="shared" si="3"/>
         <v>856970</v>
       </c>
-      <c r="O8" s="508"/>
-      <c r="P8" s="473"/>
+      <c r="O8" s="508" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="473">
+        <v>45070</v>
+      </c>
       <c r="Q8" s="64"/>
       <c r="R8" s="65"/>
       <c r="S8" s="47"/>
@@ -48512,8 +48533,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="554"/>
-      <c r="P85" s="612"/>
+      <c r="O85" s="560"/>
+      <c r="P85" s="618"/>
       <c r="Q85" s="158"/>
       <c r="R85" s="125"/>
       <c r="S85" s="176"/>
@@ -48542,8 +48563,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O86" s="555"/>
-      <c r="P86" s="613"/>
+      <c r="O86" s="561"/>
+      <c r="P86" s="619"/>
       <c r="Q86" s="158"/>
       <c r="R86" s="125"/>
       <c r="S86" s="176"/>
@@ -48974,8 +48995,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="552"/>
-      <c r="M100" s="553"/>
+      <c r="L100" s="558"/>
+      <c r="M100" s="559"/>
       <c r="N100" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49007,8 +49028,8 @@
         <v>0</v>
       </c>
       <c r="K101" s="81"/>
-      <c r="L101" s="552"/>
-      <c r="M101" s="553"/>
+      <c r="L101" s="558"/>
+      <c r="M101" s="559"/>
       <c r="N101" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49211,8 +49232,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O107" s="554"/>
-      <c r="P107" s="556"/>
+      <c r="O107" s="560"/>
+      <c r="P107" s="562"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -49244,8 +49265,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O108" s="555"/>
-      <c r="P108" s="557"/>
+      <c r="O108" s="561"/>
+      <c r="P108" s="563"/>
       <c r="Q108" s="158"/>
       <c r="R108" s="125"/>
       <c r="S108" s="176"/>
@@ -54637,11 +54658,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F272" s="543" t="s">
+      <c r="F272" s="549" t="s">
         <v>27</v>
       </c>
-      <c r="G272" s="543"/>
-      <c r="H272" s="544"/>
+      <c r="G272" s="549"/>
+      <c r="H272" s="550"/>
       <c r="I272" s="303">
         <f>SUM(I4:I271)</f>
         <v>207586.13999999998</v>
@@ -55215,16 +55236,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L100:M101"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O85:O86"/>
     <mergeCell ref="P85:P86"/>
-    <mergeCell ref="L100:M101"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
